--- a/data/swaption_vols.xlsx
+++ b/data/swaption_vols.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ED1A7A-F541-374F-92DC-31FB550D0E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="25860" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-05" sheetId="1" r:id="rId1"/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,19 +391,524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>74.62</v>
+      </c>
+      <c r="C2">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="D2">
+        <v>85.38</v>
+      </c>
+      <c r="E2">
+        <v>56.77</v>
+      </c>
+      <c r="F2">
+        <v>60.7</v>
+      </c>
+      <c r="G2">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="H2">
+        <v>57.284999999999997</v>
+      </c>
+      <c r="I2">
+        <v>57.97</v>
+      </c>
+      <c r="J2">
+        <v>60.424999999999997</v>
+      </c>
+      <c r="K2">
+        <v>56.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>35.57</v>
+      </c>
+      <c r="C3">
+        <v>72.584999999999994</v>
+      </c>
+      <c r="D3">
+        <v>82.855000000000004</v>
+      </c>
+      <c r="E3">
+        <v>60.4</v>
+      </c>
+      <c r="F3">
+        <v>63.924999999999997</v>
+      </c>
+      <c r="G3">
+        <v>69.094999999999999</v>
+      </c>
+      <c r="H3">
+        <v>59.685000000000002</v>
+      </c>
+      <c r="I3">
+        <v>59.03</v>
+      </c>
+      <c r="J3">
+        <v>58.484999999999999</v>
+      </c>
+      <c r="K3">
+        <v>57.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="C4">
+        <v>79.394999999999996</v>
+      </c>
+      <c r="D4">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="E4">
+        <v>60.844999999999999</v>
+      </c>
+      <c r="F4">
+        <v>68.745000000000005</v>
+      </c>
+      <c r="G4">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="H4">
+        <v>64.13</v>
+      </c>
+      <c r="I4">
+        <v>62.835000000000001</v>
+      </c>
+      <c r="J4">
+        <v>62.26</v>
+      </c>
+      <c r="K4">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>56.75</v>
+      </c>
+      <c r="C5">
+        <v>64.59</v>
+      </c>
+      <c r="D5">
+        <v>65.56</v>
+      </c>
+      <c r="E5">
+        <v>69.209999999999994</v>
+      </c>
+      <c r="F5">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="G5">
+        <v>66.055000000000007</v>
+      </c>
+      <c r="H5">
+        <v>65.44</v>
+      </c>
+      <c r="I5">
+        <v>64.855000000000004</v>
+      </c>
+      <c r="J5">
+        <v>64.23</v>
+      </c>
+      <c r="K5">
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>71.13</v>
+      </c>
+      <c r="C6">
+        <v>71.974999999999994</v>
+      </c>
+      <c r="D6">
+        <v>74.974999999999994</v>
+      </c>
+      <c r="E6">
+        <v>71.314999999999998</v>
+      </c>
+      <c r="F6">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="G6">
+        <v>65.805000000000007</v>
+      </c>
+      <c r="H6">
+        <v>64.734999999999999</v>
+      </c>
+      <c r="I6">
+        <v>61.715000000000003</v>
+      </c>
+      <c r="J6">
+        <v>61.034999999999997</v>
+      </c>
+      <c r="K6">
+        <v>65.575000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>70.89</v>
+      </c>
+      <c r="C7">
+        <v>77.19</v>
+      </c>
+      <c r="D7">
+        <v>77.209999999999994</v>
+      </c>
+      <c r="E7">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="F7">
+        <v>76.91</v>
+      </c>
+      <c r="G7">
+        <v>74.7</v>
+      </c>
+      <c r="H7">
+        <v>62.954999999999998</v>
+      </c>
+      <c r="I7">
+        <v>70.39</v>
+      </c>
+      <c r="J7">
+        <v>59.98</v>
+      </c>
+      <c r="K7">
+        <v>68.454999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>76.034999999999997</v>
+      </c>
+      <c r="C8">
+        <v>77.36</v>
+      </c>
+      <c r="D8">
+        <v>76.16</v>
+      </c>
+      <c r="E8">
+        <v>77.045000000000002</v>
+      </c>
+      <c r="F8">
+        <v>76.19</v>
+      </c>
+      <c r="G8">
+        <v>75.105000000000004</v>
+      </c>
+      <c r="H8">
+        <v>62.19</v>
+      </c>
+      <c r="I8">
+        <v>57.125</v>
+      </c>
+      <c r="J8">
+        <v>59.28</v>
+      </c>
+      <c r="K8">
+        <v>69.349999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>81.795000000000002</v>
+      </c>
+      <c r="C9">
+        <v>80.784999999999997</v>
+      </c>
+      <c r="D9">
+        <v>79.73</v>
+      </c>
+      <c r="E9">
+        <v>77.734999999999999</v>
+      </c>
+      <c r="F9">
+        <v>76.36</v>
+      </c>
+      <c r="G9">
+        <v>74.704999999999998</v>
+      </c>
+      <c r="H9">
+        <v>71.834999999999994</v>
+      </c>
+      <c r="I9">
+        <v>68.94</v>
+      </c>
+      <c r="J9">
+        <v>68.325000000000003</v>
+      </c>
+      <c r="K9">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>71.084999999999994</v>
+      </c>
+      <c r="C10">
+        <v>78.31</v>
+      </c>
+      <c r="D10">
+        <v>77.605000000000004</v>
+      </c>
+      <c r="E10">
+        <v>76.12</v>
+      </c>
+      <c r="F10">
+        <v>76.03</v>
+      </c>
+      <c r="G10">
+        <v>73.010000000000005</v>
+      </c>
+      <c r="H10">
+        <v>71.56</v>
+      </c>
+      <c r="I10">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="J10">
+        <v>67.295000000000002</v>
+      </c>
+      <c r="K10">
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>76.25</v>
+      </c>
+      <c r="C11">
+        <v>72.344999999999999</v>
+      </c>
+      <c r="D11">
+        <v>72.805000000000007</v>
+      </c>
+      <c r="E11">
+        <v>72.525000000000006</v>
+      </c>
+      <c r="F11">
+        <v>73.11</v>
+      </c>
+      <c r="G11">
+        <v>71.86</v>
+      </c>
+      <c r="H11">
+        <v>68.004999999999995</v>
+      </c>
+      <c r="I11">
+        <v>66.02</v>
+      </c>
+      <c r="J11">
+        <v>64.894999999999996</v>
+      </c>
+      <c r="K11">
+        <v>62.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>69.03</v>
+      </c>
+      <c r="C12">
+        <v>67.23</v>
+      </c>
+      <c r="D12">
+        <v>65.84</v>
+      </c>
+      <c r="E12">
+        <v>63.055</v>
+      </c>
+      <c r="F12">
+        <v>63.545000000000002</v>
+      </c>
+      <c r="G12">
+        <v>63.895000000000003</v>
+      </c>
+      <c r="H12">
+        <v>60.555</v>
+      </c>
+      <c r="I12">
+        <v>57.84</v>
+      </c>
+      <c r="J12">
+        <v>56.435000000000002</v>
+      </c>
+      <c r="K12">
+        <v>55.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>63.295000000000002</v>
+      </c>
+      <c r="C13">
+        <v>61.484999999999999</v>
+      </c>
+      <c r="D13">
+        <v>60.314999999999998</v>
+      </c>
+      <c r="E13">
+        <v>58.024999999999999</v>
+      </c>
+      <c r="F13">
+        <v>58.195</v>
+      </c>
+      <c r="G13">
+        <v>56.95</v>
+      </c>
+      <c r="H13">
+        <v>55.445</v>
+      </c>
+      <c r="I13">
+        <v>52.37</v>
+      </c>
+      <c r="J13">
+        <v>52.505000000000003</v>
+      </c>
+      <c r="K13">
+        <v>51.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>57.78</v>
+      </c>
+      <c r="C14">
+        <v>55.35</v>
+      </c>
+      <c r="D14">
+        <v>56.365000000000002</v>
+      </c>
+      <c r="E14">
+        <v>54.115000000000002</v>
+      </c>
+      <c r="F14">
+        <v>54.634999999999998</v>
+      </c>
+      <c r="G14">
+        <v>52.87</v>
+      </c>
+      <c r="H14">
+        <v>53.33</v>
+      </c>
+      <c r="I14">
+        <v>52.384999999999998</v>
+      </c>
+      <c r="J14">
+        <v>51.96</v>
+      </c>
+      <c r="K14">
+        <v>51.865000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,459 +943,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>74.62</v>
+        <v>64.03</v>
       </c>
       <c r="C2">
-        <v>79.569999999999993</v>
+        <v>72.605000000000004</v>
       </c>
       <c r="D2">
-        <v>85.38</v>
+        <v>67.19</v>
       </c>
       <c r="E2">
-        <v>56.77</v>
+        <v>52.38</v>
       </c>
       <c r="F2">
-        <v>60.7</v>
+        <v>56.604999999999997</v>
       </c>
       <c r="G2">
-        <v>68.680000000000007</v>
+        <v>61.49</v>
       </c>
       <c r="H2">
-        <v>57.284999999999997</v>
+        <v>54.744999999999997</v>
       </c>
       <c r="I2">
-        <v>57.97</v>
+        <v>55.704999999999998</v>
       </c>
       <c r="J2">
-        <v>60.424999999999997</v>
+        <v>55.13</v>
       </c>
       <c r="K2">
-        <v>56.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.115000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>35.57</v>
+        <v>31.95</v>
       </c>
       <c r="C3">
-        <v>72.584999999999994</v>
+        <v>69.41</v>
       </c>
       <c r="D3">
-        <v>82.855000000000004</v>
+        <v>67.084999999999994</v>
       </c>
       <c r="E3">
-        <v>60.4</v>
+        <v>55.34</v>
       </c>
       <c r="F3">
-        <v>63.924999999999997</v>
+        <v>59.375</v>
       </c>
       <c r="G3">
-        <v>69.094999999999999</v>
+        <v>62.564999999999998</v>
       </c>
       <c r="H3">
-        <v>59.685000000000002</v>
+        <v>56.945</v>
       </c>
       <c r="I3">
-        <v>59.03</v>
+        <v>56.65</v>
       </c>
       <c r="J3">
-        <v>58.484999999999999</v>
+        <v>56.234999999999999</v>
       </c>
       <c r="K3">
-        <v>57.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.814999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>70.680000000000007</v>
+        <v>67.22</v>
       </c>
       <c r="C4">
-        <v>79.394999999999996</v>
+        <v>66.17</v>
       </c>
       <c r="D4">
-        <v>78.959999999999994</v>
+        <v>67.69</v>
       </c>
       <c r="E4">
-        <v>60.844999999999999</v>
+        <v>61.085000000000001</v>
       </c>
       <c r="F4">
-        <v>68.745000000000005</v>
+        <v>63.88</v>
       </c>
       <c r="G4">
-        <v>65.510000000000005</v>
+        <v>61.8</v>
       </c>
       <c r="H4">
-        <v>64.13</v>
+        <v>61.265000000000001</v>
       </c>
       <c r="I4">
-        <v>62.835000000000001</v>
+        <v>60.37</v>
       </c>
       <c r="J4">
-        <v>62.26</v>
+        <v>59.9</v>
       </c>
       <c r="K4">
-        <v>61.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.424999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>56.75</v>
+        <v>49.48</v>
       </c>
       <c r="C5">
-        <v>64.59</v>
+        <v>57.4</v>
       </c>
       <c r="D5">
-        <v>65.56</v>
+        <v>59.46</v>
       </c>
       <c r="E5">
-        <v>69.209999999999994</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="F5">
-        <v>69.349999999999994</v>
+        <v>64.575000000000003</v>
       </c>
       <c r="G5">
-        <v>66.055000000000007</v>
+        <v>62.39</v>
       </c>
       <c r="H5">
-        <v>65.44</v>
+        <v>62.545000000000002</v>
       </c>
       <c r="I5">
-        <v>64.855000000000004</v>
+        <v>62.325000000000003</v>
       </c>
       <c r="J5">
-        <v>64.23</v>
+        <v>61.825000000000003</v>
       </c>
       <c r="K5">
-        <v>63.57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.344999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>71.13</v>
+        <v>69.805000000000007</v>
       </c>
       <c r="C6">
-        <v>71.974999999999994</v>
+        <v>69.144999999999996</v>
       </c>
       <c r="D6">
-        <v>74.974999999999994</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="E6">
-        <v>71.314999999999998</v>
+        <v>65.95</v>
       </c>
       <c r="F6">
-        <v>69.569999999999993</v>
+        <v>65.144999999999996</v>
       </c>
       <c r="G6">
-        <v>65.805000000000007</v>
+        <v>62.28</v>
       </c>
       <c r="H6">
-        <v>64.734999999999999</v>
+        <v>61.884999999999998</v>
       </c>
       <c r="I6">
-        <v>61.715000000000003</v>
+        <v>59.335000000000001</v>
       </c>
       <c r="J6">
-        <v>61.034999999999997</v>
+        <v>58.58</v>
       </c>
       <c r="K6">
-        <v>65.575000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>70.89</v>
+        <v>64.44</v>
       </c>
       <c r="C7">
-        <v>77.19</v>
+        <v>71.185000000000002</v>
       </c>
       <c r="D7">
-        <v>77.209999999999994</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="E7">
-        <v>75.930000000000007</v>
+        <v>71.155000000000001</v>
       </c>
       <c r="F7">
-        <v>76.91</v>
+        <v>72.73</v>
       </c>
       <c r="G7">
-        <v>74.7</v>
+        <v>71.465000000000003</v>
       </c>
       <c r="H7">
-        <v>62.954999999999998</v>
+        <v>60.37</v>
       </c>
       <c r="I7">
-        <v>70.39</v>
+        <v>67.995000000000005</v>
       </c>
       <c r="J7">
-        <v>59.98</v>
+        <v>57.835000000000001</v>
       </c>
       <c r="K7">
-        <v>68.454999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.314999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>76.034999999999997</v>
+        <v>71.745000000000005</v>
       </c>
       <c r="C8">
-        <v>77.36</v>
+        <v>72.174999999999997</v>
       </c>
       <c r="D8">
-        <v>76.16</v>
+        <v>65.52</v>
       </c>
       <c r="E8">
-        <v>77.045000000000002</v>
+        <v>73.12</v>
       </c>
       <c r="F8">
-        <v>76.19</v>
+        <v>64.885000000000005</v>
       </c>
       <c r="G8">
-        <v>75.105000000000004</v>
+        <v>72.234999999999999</v>
       </c>
       <c r="H8">
-        <v>62.19</v>
+        <v>59.704999999999998</v>
       </c>
       <c r="I8">
-        <v>57.125</v>
+        <v>58.704999999999998</v>
       </c>
       <c r="J8">
-        <v>59.28</v>
+        <v>57.185000000000002</v>
       </c>
       <c r="K8">
-        <v>69.349999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.344999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>81.795000000000002</v>
+        <v>78.06</v>
       </c>
       <c r="C9">
-        <v>80.784999999999997</v>
+        <v>77.165000000000006</v>
       </c>
       <c r="D9">
-        <v>79.73</v>
+        <v>76.525000000000006</v>
       </c>
       <c r="E9">
-        <v>77.734999999999999</v>
+        <v>68.984999999999999</v>
       </c>
       <c r="F9">
-        <v>76.36</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>74.704999999999998</v>
+        <v>72.48</v>
       </c>
       <c r="H9">
-        <v>71.834999999999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I9">
-        <v>68.94</v>
+        <v>67.055000000000007</v>
       </c>
       <c r="J9">
-        <v>68.325000000000003</v>
+        <v>66.564999999999998</v>
       </c>
       <c r="K9">
-        <v>68.180000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>71.084999999999994</v>
+        <v>76.344999999999999</v>
       </c>
       <c r="C10">
-        <v>78.31</v>
+        <v>75.685000000000002</v>
       </c>
       <c r="D10">
-        <v>77.605000000000004</v>
+        <v>75.31</v>
       </c>
       <c r="E10">
-        <v>76.12</v>
+        <v>74.204999999999998</v>
       </c>
       <c r="F10">
-        <v>76.03</v>
+        <v>74.025000000000006</v>
       </c>
       <c r="G10">
-        <v>73.010000000000005</v>
+        <v>73.16</v>
       </c>
       <c r="H10">
-        <v>71.56</v>
+        <v>69.78</v>
       </c>
       <c r="I10">
-        <v>68.040000000000006</v>
+        <v>66.34</v>
       </c>
       <c r="J10">
-        <v>67.295000000000002</v>
+        <v>65.680000000000007</v>
       </c>
       <c r="K10">
-        <v>66.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.924999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>76.25</v>
+        <v>74.48</v>
       </c>
       <c r="C11">
-        <v>72.344999999999999</v>
+        <v>72.435000000000002</v>
       </c>
       <c r="D11">
-        <v>72.805000000000007</v>
+        <v>72.905000000000001</v>
       </c>
       <c r="E11">
-        <v>72.525000000000006</v>
+        <v>70.825000000000003</v>
       </c>
       <c r="F11">
-        <v>73.11</v>
+        <v>71.47</v>
       </c>
       <c r="G11">
-        <v>71.86</v>
+        <v>70.28</v>
       </c>
       <c r="H11">
-        <v>68.004999999999995</v>
+        <v>66.36</v>
       </c>
       <c r="I11">
-        <v>66.02</v>
+        <v>64.564999999999998</v>
       </c>
       <c r="J11">
-        <v>64.894999999999996</v>
+        <v>63.4</v>
       </c>
       <c r="K11">
-        <v>62.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>69.03</v>
+        <v>67.19</v>
       </c>
       <c r="C12">
-        <v>67.23</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="D12">
-        <v>65.84</v>
+        <v>64.44</v>
       </c>
       <c r="E12">
-        <v>63.055</v>
+        <v>61.71</v>
       </c>
       <c r="F12">
-        <v>63.545000000000002</v>
+        <v>62.07</v>
       </c>
       <c r="G12">
-        <v>63.895000000000003</v>
+        <v>62.35</v>
       </c>
       <c r="H12">
-        <v>60.555</v>
+        <v>59.22</v>
       </c>
       <c r="I12">
-        <v>57.84</v>
+        <v>56.52</v>
       </c>
       <c r="J12">
-        <v>56.435000000000002</v>
+        <v>55.14</v>
       </c>
       <c r="K12">
-        <v>55.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>63.295000000000002</v>
+        <v>61.305</v>
       </c>
       <c r="C13">
-        <v>61.484999999999999</v>
+        <v>59.765000000000001</v>
       </c>
       <c r="D13">
-        <v>60.314999999999998</v>
+        <v>58.734999999999999</v>
       </c>
       <c r="E13">
-        <v>58.024999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="F13">
-        <v>58.195</v>
+        <v>56.7</v>
       </c>
       <c r="G13">
-        <v>56.95</v>
+        <v>55.72</v>
       </c>
       <c r="H13">
-        <v>55.445</v>
+        <v>54.18</v>
       </c>
       <c r="I13">
-        <v>52.37</v>
+        <v>51.125</v>
       </c>
       <c r="J13">
-        <v>52.505000000000003</v>
+        <v>50.98</v>
       </c>
       <c r="K13">
-        <v>51.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>57.78</v>
+        <v>56.255000000000003</v>
       </c>
       <c r="C14">
-        <v>55.35</v>
+        <v>55.68</v>
       </c>
       <c r="D14">
-        <v>56.365000000000002</v>
+        <v>54.96</v>
       </c>
       <c r="E14">
-        <v>54.115000000000002</v>
+        <v>54.41</v>
       </c>
       <c r="F14">
-        <v>54.634999999999998</v>
+        <v>53.234999999999999</v>
       </c>
       <c r="G14">
-        <v>52.87</v>
+        <v>51.564999999999998</v>
       </c>
       <c r="H14">
-        <v>53.33</v>
+        <v>51.54</v>
       </c>
       <c r="I14">
-        <v>52.384999999999998</v>
+        <v>50.314999999999998</v>
       </c>
       <c r="J14">
-        <v>51.96</v>
+        <v>49.784999999999997</v>
       </c>
       <c r="K14">
-        <v>51.865000000000002</v>
+        <v>49.615000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -897,17 +1403,522 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>71.53</v>
+      </c>
+      <c r="C2">
+        <v>77.98</v>
+      </c>
+      <c r="D2">
+        <v>74.55</v>
+      </c>
+      <c r="E2">
+        <v>55.215000000000003</v>
+      </c>
+      <c r="F2">
+        <v>59.13</v>
+      </c>
+      <c r="G2">
+        <v>64.385000000000005</v>
+      </c>
+      <c r="H2">
+        <v>56.05</v>
+      </c>
+      <c r="I2">
+        <v>56.765000000000001</v>
+      </c>
+      <c r="J2">
+        <v>55.08</v>
+      </c>
+      <c r="K2">
+        <v>54.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="C3">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="D3">
+        <v>72.055000000000007</v>
+      </c>
+      <c r="E3">
+        <v>58.744999999999997</v>
+      </c>
+      <c r="F3">
+        <v>68.765000000000001</v>
+      </c>
+      <c r="G3">
+        <v>64.825000000000003</v>
+      </c>
+      <c r="H3">
+        <v>58.405000000000001</v>
+      </c>
+      <c r="I3">
+        <v>57.8</v>
+      </c>
+      <c r="J3">
+        <v>57.22</v>
+      </c>
+      <c r="K3">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="C4">
+        <v>71.47</v>
+      </c>
+      <c r="D4">
+        <v>72.5</v>
+      </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>66.95</v>
+      </c>
+      <c r="G4">
+        <v>64.034999999999997</v>
+      </c>
+      <c r="H4">
+        <v>62.76</v>
+      </c>
+      <c r="I4">
+        <v>61.524999999999999</v>
+      </c>
+      <c r="J4">
+        <v>60.91</v>
+      </c>
+      <c r="K4">
+        <v>60.335000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>55.12</v>
+      </c>
+      <c r="C5">
+        <v>62.2</v>
+      </c>
+      <c r="D5">
+        <v>63.755000000000003</v>
+      </c>
+      <c r="E5">
+        <v>67.275000000000006</v>
+      </c>
+      <c r="F5">
+        <v>66.644999999999996</v>
+      </c>
+      <c r="G5">
+        <v>64.55</v>
+      </c>
+      <c r="H5">
+        <v>64.015000000000001</v>
+      </c>
+      <c r="I5">
+        <v>63.484999999999999</v>
+      </c>
+      <c r="J5">
+        <v>62.835000000000001</v>
+      </c>
+      <c r="K5">
+        <v>62.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>70.605000000000004</v>
+      </c>
+      <c r="C6">
+        <v>69.995000000000005</v>
+      </c>
+      <c r="D6">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="E6">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="F6">
+        <v>67.86</v>
+      </c>
+      <c r="G6">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="H6">
+        <v>63.64</v>
+      </c>
+      <c r="I6">
+        <v>60.82</v>
+      </c>
+      <c r="J6">
+        <v>60.555</v>
+      </c>
+      <c r="K6">
+        <v>64.254999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>68.16</v>
+      </c>
+      <c r="C7">
+        <v>75.215000000000003</v>
+      </c>
+      <c r="D7">
+        <v>74.905000000000001</v>
+      </c>
+      <c r="E7">
+        <v>74.144999999999996</v>
+      </c>
+      <c r="F7">
+        <v>75.174999999999997</v>
+      </c>
+      <c r="G7">
+        <v>73.265000000000001</v>
+      </c>
+      <c r="H7">
+        <v>61.36</v>
+      </c>
+      <c r="I7">
+        <v>68.974999999999994</v>
+      </c>
+      <c r="J7">
+        <v>59.645000000000003</v>
+      </c>
+      <c r="K7">
+        <v>67.114999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>75.22</v>
+      </c>
+      <c r="C8">
+        <v>75.405000000000001</v>
+      </c>
+      <c r="D8">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="E8">
+        <v>75.465000000000003</v>
+      </c>
+      <c r="F8">
+        <v>65.55</v>
+      </c>
+      <c r="G8">
+        <v>73.715000000000003</v>
+      </c>
+      <c r="H8">
+        <v>60.524999999999999</v>
+      </c>
+      <c r="I8">
+        <v>58.664999999999999</v>
+      </c>
+      <c r="J8">
+        <v>59.27</v>
+      </c>
+      <c r="K8">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>80.14</v>
+      </c>
+      <c r="C9">
+        <v>79.254999999999995</v>
+      </c>
+      <c r="D9">
+        <v>78.275000000000006</v>
+      </c>
+      <c r="E9">
+        <v>76.37</v>
+      </c>
+      <c r="F9">
+        <v>75.12</v>
+      </c>
+      <c r="G9">
+        <v>73.37</v>
+      </c>
+      <c r="H9">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="I9">
+        <v>67.584999999999994</v>
+      </c>
+      <c r="J9">
+        <v>67.045000000000002</v>
+      </c>
+      <c r="K9">
+        <v>66.984999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="C10">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="D10">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="E10">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="F10">
+        <v>74.745000000000005</v>
+      </c>
+      <c r="G10">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="H10">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="I10">
+        <v>66.754999999999995</v>
+      </c>
+      <c r="J10">
+        <v>66.114999999999995</v>
+      </c>
+      <c r="K10">
+        <v>65.430000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>75.13</v>
+      </c>
+      <c r="C11">
+        <v>72.510000000000005</v>
+      </c>
+      <c r="D11">
+        <v>60.63</v>
+      </c>
+      <c r="E11">
+        <v>63.965000000000003</v>
+      </c>
+      <c r="F11">
+        <v>56.795000000000002</v>
+      </c>
+      <c r="G11">
+        <v>70.59</v>
+      </c>
+      <c r="H11">
+        <v>66.644999999999996</v>
+      </c>
+      <c r="I11">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="J11">
+        <v>63.814999999999998</v>
+      </c>
+      <c r="K11">
+        <v>61.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C12">
+        <v>66.155000000000001</v>
+      </c>
+      <c r="D12">
+        <v>64.73</v>
+      </c>
+      <c r="E12">
+        <v>62.02</v>
+      </c>
+      <c r="F12">
+        <v>62.35</v>
+      </c>
+      <c r="G12">
+        <v>62.594999999999999</v>
+      </c>
+      <c r="H12">
+        <v>59.48</v>
+      </c>
+      <c r="I12">
+        <v>56.9</v>
+      </c>
+      <c r="J12">
+        <v>55.59</v>
+      </c>
+      <c r="K12">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>61.844999999999999</v>
+      </c>
+      <c r="C13">
+        <v>60.04</v>
+      </c>
+      <c r="D13">
+        <v>58.875</v>
+      </c>
+      <c r="E13">
+        <v>56.594999999999999</v>
+      </c>
+      <c r="F13">
+        <v>56.965000000000003</v>
+      </c>
+      <c r="G13">
+        <v>55.92</v>
+      </c>
+      <c r="H13">
+        <v>54.594999999999999</v>
+      </c>
+      <c r="I13">
+        <v>51.615000000000002</v>
+      </c>
+      <c r="J13">
+        <v>51.67</v>
+      </c>
+      <c r="K13">
+        <v>50.994999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>57.365000000000002</v>
+      </c>
+      <c r="C14">
+        <v>55.82</v>
+      </c>
+      <c r="D14">
+        <v>55.96</v>
+      </c>
+      <c r="E14">
+        <v>53.494999999999997</v>
+      </c>
+      <c r="F14">
+        <v>54.215000000000003</v>
+      </c>
+      <c r="G14">
+        <v>52.465000000000003</v>
+      </c>
+      <c r="H14">
+        <v>52.704999999999998</v>
+      </c>
+      <c r="I14">
+        <v>51.62</v>
+      </c>
+      <c r="J14">
+        <v>51.14</v>
+      </c>
+      <c r="K14">
+        <v>50.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,459 +1953,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>64.03</v>
+        <v>69.39</v>
       </c>
       <c r="C2">
-        <v>72.605000000000004</v>
+        <v>79.42</v>
       </c>
       <c r="D2">
-        <v>67.19</v>
+        <v>77.13</v>
       </c>
       <c r="E2">
-        <v>52.38</v>
+        <v>54.094999999999999</v>
       </c>
       <c r="F2">
-        <v>56.604999999999997</v>
+        <v>57.93</v>
       </c>
       <c r="G2">
-        <v>61.49</v>
+        <v>62.37</v>
       </c>
       <c r="H2">
-        <v>54.744999999999997</v>
+        <v>54.97</v>
       </c>
       <c r="I2">
-        <v>55.704999999999998</v>
+        <v>55.685000000000002</v>
       </c>
       <c r="J2">
-        <v>55.13</v>
+        <v>57.68</v>
       </c>
       <c r="K2">
-        <v>54.115000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>31.95</v>
+        <v>33.56</v>
       </c>
       <c r="C3">
-        <v>69.41</v>
+        <v>72.495000000000005</v>
       </c>
       <c r="D3">
-        <v>67.084999999999994</v>
+        <v>77.97</v>
       </c>
       <c r="E3">
-        <v>55.34</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="F3">
-        <v>59.375</v>
+        <v>70.655000000000001</v>
       </c>
       <c r="G3">
-        <v>62.564999999999998</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="H3">
-        <v>56.945</v>
+        <v>57.17</v>
       </c>
       <c r="I3">
-        <v>56.65</v>
+        <v>56.615000000000002</v>
       </c>
       <c r="J3">
-        <v>56.234999999999999</v>
+        <v>56.04</v>
       </c>
       <c r="K3">
-        <v>55.814999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>67.22</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="C4">
-        <v>66.17</v>
+        <v>74.415000000000006</v>
       </c>
       <c r="D4">
-        <v>67.69</v>
+        <v>74.575000000000003</v>
       </c>
       <c r="E4">
-        <v>61.085000000000001</v>
+        <v>60.77</v>
       </c>
       <c r="F4">
-        <v>63.88</v>
+        <v>66.55</v>
       </c>
       <c r="G4">
-        <v>61.8</v>
+        <v>63.494999999999997</v>
       </c>
       <c r="H4">
-        <v>61.265000000000001</v>
+        <v>61.43</v>
       </c>
       <c r="I4">
-        <v>60.37</v>
+        <v>60.274999999999999</v>
       </c>
       <c r="J4">
-        <v>59.9</v>
+        <v>59.655000000000001</v>
       </c>
       <c r="K4">
-        <v>59.424999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.064999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>49.48</v>
+        <v>52.32</v>
       </c>
       <c r="C5">
-        <v>57.4</v>
+        <v>72.23</v>
       </c>
       <c r="D5">
-        <v>59.46</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="E5">
-        <v>64.540000000000006</v>
+        <v>68.02</v>
       </c>
       <c r="F5">
-        <v>64.575000000000003</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="G5">
-        <v>62.39</v>
+        <v>63.14</v>
       </c>
       <c r="H5">
-        <v>62.545000000000002</v>
+        <v>62.7</v>
       </c>
       <c r="I5">
-        <v>62.325000000000003</v>
+        <v>62.225000000000001</v>
       </c>
       <c r="J5">
-        <v>61.825000000000003</v>
+        <v>61.56</v>
       </c>
       <c r="K5">
-        <v>61.344999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>69.805000000000007</v>
+        <v>71.114999999999995</v>
       </c>
       <c r="C6">
-        <v>69.144999999999996</v>
+        <v>71.965000000000003</v>
       </c>
       <c r="D6">
-        <v>66.260000000000005</v>
+        <v>71.194999999999993</v>
       </c>
       <c r="E6">
-        <v>65.95</v>
+        <v>68.355000000000004</v>
       </c>
       <c r="F6">
-        <v>65.144999999999996</v>
+        <v>66.084999999999994</v>
       </c>
       <c r="G6">
-        <v>62.28</v>
+        <v>63.01</v>
       </c>
       <c r="H6">
-        <v>61.884999999999998</v>
+        <v>62.075000000000003</v>
       </c>
       <c r="I6">
-        <v>59.335000000000001</v>
+        <v>59.24</v>
       </c>
       <c r="J6">
-        <v>58.58</v>
+        <v>57.33</v>
       </c>
       <c r="K6">
-        <v>63.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>64.44</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="C7">
-        <v>71.185000000000002</v>
+        <v>71.144999999999996</v>
       </c>
       <c r="D7">
-        <v>71.430000000000007</v>
+        <v>73.72</v>
       </c>
       <c r="E7">
-        <v>71.155000000000001</v>
+        <v>67.284999999999997</v>
       </c>
       <c r="F7">
-        <v>72.73</v>
+        <v>65.564999999999998</v>
       </c>
       <c r="G7">
-        <v>71.465000000000003</v>
+        <v>62.354999999999997</v>
       </c>
       <c r="H7">
-        <v>60.37</v>
+        <v>60.5</v>
       </c>
       <c r="I7">
-        <v>67.995000000000005</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="J7">
-        <v>57.835000000000001</v>
+        <v>56.79</v>
       </c>
       <c r="K7">
-        <v>66.314999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.760000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>71.745000000000005</v>
+        <v>69.504999999999995</v>
       </c>
       <c r="C8">
-        <v>72.174999999999997</v>
+        <v>74.38</v>
       </c>
       <c r="D8">
-        <v>65.52</v>
+        <v>69.415000000000006</v>
       </c>
       <c r="E8">
-        <v>73.12</v>
+        <v>66.8</v>
       </c>
       <c r="F8">
-        <v>64.885000000000005</v>
+        <v>66.11</v>
       </c>
       <c r="G8">
-        <v>72.234999999999999</v>
+        <v>62.494999999999997</v>
       </c>
       <c r="H8">
-        <v>59.704999999999998</v>
+        <v>59.84</v>
       </c>
       <c r="I8">
-        <v>58.704999999999998</v>
+        <v>57.03</v>
       </c>
       <c r="J8">
-        <v>57.185000000000002</v>
+        <v>56.33</v>
       </c>
       <c r="K8">
-        <v>67.344999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.674999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>78.06</v>
+        <v>78.765000000000001</v>
       </c>
       <c r="C9">
-        <v>77.165000000000006</v>
+        <v>68.45</v>
       </c>
       <c r="D9">
-        <v>76.525000000000006</v>
+        <v>66.745000000000005</v>
       </c>
       <c r="E9">
-        <v>68.984999999999999</v>
+        <v>65.504999999999995</v>
       </c>
       <c r="F9">
-        <v>74</v>
+        <v>63.96</v>
       </c>
       <c r="G9">
-        <v>72.48</v>
+        <v>61.814999999999998</v>
       </c>
       <c r="H9">
-        <v>69.900000000000006</v>
+        <v>69.194999999999993</v>
       </c>
       <c r="I9">
-        <v>67.055000000000007</v>
+        <v>66.284999999999997</v>
       </c>
       <c r="J9">
-        <v>66.564999999999998</v>
+        <v>65.715000000000003</v>
       </c>
       <c r="K9">
-        <v>66.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.564999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.344999999999999</v>
+        <v>76.284999999999997</v>
       </c>
       <c r="C10">
-        <v>75.685000000000002</v>
+        <v>71.44</v>
       </c>
       <c r="D10">
-        <v>75.31</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="E10">
-        <v>74.204999999999998</v>
+        <v>64.38</v>
       </c>
       <c r="F10">
-        <v>74.025000000000006</v>
+        <v>63.47</v>
       </c>
       <c r="G10">
-        <v>73.16</v>
+        <v>72.894999999999996</v>
       </c>
       <c r="H10">
-        <v>69.78</v>
+        <v>68.915000000000006</v>
       </c>
       <c r="I10">
-        <v>66.34</v>
+        <v>65.435000000000002</v>
       </c>
       <c r="J10">
-        <v>65.680000000000007</v>
+        <v>64.754999999999995</v>
       </c>
       <c r="K10">
-        <v>64.924999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.034999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>74.48</v>
+        <v>67.415000000000006</v>
       </c>
       <c r="C11">
-        <v>72.435000000000002</v>
+        <v>72.314999999999998</v>
       </c>
       <c r="D11">
-        <v>72.905000000000001</v>
+        <v>72.765000000000001</v>
       </c>
       <c r="E11">
-        <v>70.825000000000003</v>
+        <v>64.17</v>
       </c>
       <c r="F11">
-        <v>71.47</v>
+        <v>57.015000000000001</v>
       </c>
       <c r="G11">
-        <v>70.28</v>
+        <v>61.034999999999997</v>
       </c>
       <c r="H11">
-        <v>66.36</v>
+        <v>65.37</v>
       </c>
       <c r="I11">
-        <v>64.564999999999998</v>
+        <v>63.524999999999999</v>
       </c>
       <c r="J11">
-        <v>63.4</v>
+        <v>62.42</v>
       </c>
       <c r="K11">
-        <v>61.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>67.19</v>
+        <v>66.325000000000003</v>
       </c>
       <c r="C12">
-        <v>65.849999999999994</v>
+        <v>64.83</v>
       </c>
       <c r="D12">
-        <v>64.44</v>
+        <v>63.51</v>
       </c>
       <c r="E12">
-        <v>61.71</v>
+        <v>60.87</v>
       </c>
       <c r="F12">
-        <v>62.07</v>
+        <v>61.16</v>
       </c>
       <c r="G12">
-        <v>62.35</v>
+        <v>61.414999999999999</v>
       </c>
       <c r="H12">
-        <v>59.22</v>
+        <v>58.244999999999997</v>
       </c>
       <c r="I12">
-        <v>56.52</v>
+        <v>55.645000000000003</v>
       </c>
       <c r="J12">
-        <v>55.14</v>
+        <v>54.31</v>
       </c>
       <c r="K12">
-        <v>54.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53.725000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>61.305</v>
+        <v>60.225000000000001</v>
       </c>
       <c r="C13">
-        <v>59.765000000000001</v>
+        <v>58.715000000000003</v>
       </c>
       <c r="D13">
-        <v>58.734999999999999</v>
+        <v>57.604999999999997</v>
       </c>
       <c r="E13">
-        <v>56.4</v>
+        <v>55.454999999999998</v>
       </c>
       <c r="F13">
-        <v>56.7</v>
+        <v>55.734999999999999</v>
       </c>
       <c r="G13">
-        <v>55.72</v>
+        <v>54.7</v>
       </c>
       <c r="H13">
-        <v>54.18</v>
+        <v>53.32</v>
       </c>
       <c r="I13">
-        <v>51.125</v>
+        <v>50.36</v>
       </c>
       <c r="J13">
-        <v>50.98</v>
+        <v>50.335000000000001</v>
       </c>
       <c r="K13">
-        <v>50.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49.604999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>56.255000000000003</v>
+        <v>56.04</v>
       </c>
       <c r="C14">
-        <v>55.68</v>
+        <v>55.034999999999997</v>
       </c>
       <c r="D14">
-        <v>54.96</v>
+        <v>54.5</v>
       </c>
       <c r="E14">
-        <v>54.41</v>
+        <v>53.954999999999998</v>
       </c>
       <c r="F14">
-        <v>53.234999999999999</v>
+        <v>52.784999999999997</v>
       </c>
       <c r="G14">
-        <v>51.564999999999998</v>
+        <v>51.07</v>
       </c>
       <c r="H14">
-        <v>51.54</v>
+        <v>51.185000000000002</v>
       </c>
       <c r="I14">
-        <v>50.314999999999998</v>
+        <v>50.07</v>
       </c>
       <c r="J14">
-        <v>49.784999999999997</v>
+        <v>49.585000000000001</v>
       </c>
       <c r="K14">
-        <v>49.615000000000002</v>
+        <v>49.45</v>
       </c>
     </row>
   </sheetData>
@@ -1402,522 +2413,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>71.53</v>
-      </c>
-      <c r="C2">
-        <v>77.98</v>
-      </c>
-      <c r="D2">
-        <v>74.55</v>
-      </c>
-      <c r="E2">
-        <v>55.215000000000003</v>
-      </c>
-      <c r="F2">
-        <v>59.13</v>
-      </c>
-      <c r="G2">
-        <v>64.385000000000005</v>
-      </c>
-      <c r="H2">
-        <v>56.05</v>
-      </c>
-      <c r="I2">
-        <v>56.765000000000001</v>
-      </c>
-      <c r="J2">
-        <v>55.08</v>
-      </c>
-      <c r="K2">
-        <v>54.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>34.869999999999997</v>
-      </c>
-      <c r="C3">
-        <v>70.459999999999994</v>
-      </c>
-      <c r="D3">
-        <v>72.055000000000007</v>
-      </c>
-      <c r="E3">
-        <v>58.744999999999997</v>
-      </c>
-      <c r="F3">
-        <v>68.765000000000001</v>
-      </c>
-      <c r="G3">
-        <v>64.825000000000003</v>
-      </c>
-      <c r="H3">
-        <v>58.405000000000001</v>
-      </c>
-      <c r="I3">
-        <v>57.8</v>
-      </c>
-      <c r="J3">
-        <v>57.22</v>
-      </c>
-      <c r="K3">
-        <v>56.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>68.739999999999995</v>
-      </c>
-      <c r="C4">
-        <v>71.47</v>
-      </c>
-      <c r="D4">
-        <v>72.5</v>
-      </c>
-      <c r="E4">
-        <v>61</v>
-      </c>
-      <c r="F4">
-        <v>66.95</v>
-      </c>
-      <c r="G4">
-        <v>64.034999999999997</v>
-      </c>
-      <c r="H4">
-        <v>62.76</v>
-      </c>
-      <c r="I4">
-        <v>61.524999999999999</v>
-      </c>
-      <c r="J4">
-        <v>60.91</v>
-      </c>
-      <c r="K4">
-        <v>60.335000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>55.12</v>
-      </c>
-      <c r="C5">
-        <v>62.2</v>
-      </c>
-      <c r="D5">
-        <v>63.755000000000003</v>
-      </c>
-      <c r="E5">
-        <v>67.275000000000006</v>
-      </c>
-      <c r="F5">
-        <v>66.644999999999996</v>
-      </c>
-      <c r="G5">
-        <v>64.55</v>
-      </c>
-      <c r="H5">
-        <v>64.015000000000001</v>
-      </c>
-      <c r="I5">
-        <v>63.484999999999999</v>
-      </c>
-      <c r="J5">
-        <v>62.835000000000001</v>
-      </c>
-      <c r="K5">
-        <v>62.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>70.605000000000004</v>
-      </c>
-      <c r="C6">
-        <v>69.995000000000005</v>
-      </c>
-      <c r="D6">
-        <v>70.489999999999995</v>
-      </c>
-      <c r="E6">
-        <v>69.680000000000007</v>
-      </c>
-      <c r="F6">
-        <v>67.86</v>
-      </c>
-      <c r="G6">
-        <v>64.569999999999993</v>
-      </c>
-      <c r="H6">
-        <v>63.64</v>
-      </c>
-      <c r="I6">
-        <v>60.82</v>
-      </c>
-      <c r="J6">
-        <v>60.555</v>
-      </c>
-      <c r="K6">
-        <v>64.254999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>68.16</v>
-      </c>
-      <c r="C7">
-        <v>75.215000000000003</v>
-      </c>
-      <c r="D7">
-        <v>74.905000000000001</v>
-      </c>
-      <c r="E7">
-        <v>74.144999999999996</v>
-      </c>
-      <c r="F7">
-        <v>75.174999999999997</v>
-      </c>
-      <c r="G7">
-        <v>73.265000000000001</v>
-      </c>
-      <c r="H7">
-        <v>61.36</v>
-      </c>
-      <c r="I7">
-        <v>68.974999999999994</v>
-      </c>
-      <c r="J7">
-        <v>59.645000000000003</v>
-      </c>
-      <c r="K7">
-        <v>67.114999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>75.22</v>
-      </c>
-      <c r="C8">
-        <v>75.405000000000001</v>
-      </c>
-      <c r="D8">
-        <v>67.040000000000006</v>
-      </c>
-      <c r="E8">
-        <v>75.465000000000003</v>
-      </c>
-      <c r="F8">
-        <v>65.55</v>
-      </c>
-      <c r="G8">
-        <v>73.715000000000003</v>
-      </c>
-      <c r="H8">
-        <v>60.524999999999999</v>
-      </c>
-      <c r="I8">
-        <v>58.664999999999999</v>
-      </c>
-      <c r="J8">
-        <v>59.27</v>
-      </c>
-      <c r="K8">
-        <v>68.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>80.14</v>
-      </c>
-      <c r="C9">
-        <v>79.254999999999995</v>
-      </c>
-      <c r="D9">
-        <v>78.275000000000006</v>
-      </c>
-      <c r="E9">
-        <v>76.37</v>
-      </c>
-      <c r="F9">
-        <v>75.12</v>
-      </c>
-      <c r="G9">
-        <v>73.37</v>
-      </c>
-      <c r="H9">
-        <v>70.540000000000006</v>
-      </c>
-      <c r="I9">
-        <v>67.584999999999994</v>
-      </c>
-      <c r="J9">
-        <v>67.045000000000002</v>
-      </c>
-      <c r="K9">
-        <v>66.984999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="C10">
-        <v>76.819999999999993</v>
-      </c>
-      <c r="D10">
-        <v>68.069999999999993</v>
-      </c>
-      <c r="E10">
-        <v>74.989999999999995</v>
-      </c>
-      <c r="F10">
-        <v>74.745000000000005</v>
-      </c>
-      <c r="G10">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="H10">
-        <v>70.239999999999995</v>
-      </c>
-      <c r="I10">
-        <v>66.754999999999995</v>
-      </c>
-      <c r="J10">
-        <v>66.114999999999995</v>
-      </c>
-      <c r="K10">
-        <v>65.430000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>75.13</v>
-      </c>
-      <c r="C11">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="D11">
-        <v>60.63</v>
-      </c>
-      <c r="E11">
-        <v>63.965000000000003</v>
-      </c>
-      <c r="F11">
-        <v>56.795000000000002</v>
-      </c>
-      <c r="G11">
-        <v>70.59</v>
-      </c>
-      <c r="H11">
-        <v>66.644999999999996</v>
-      </c>
-      <c r="I11">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="J11">
-        <v>63.814999999999998</v>
-      </c>
-      <c r="K11">
-        <v>61.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C12">
-        <v>66.155000000000001</v>
-      </c>
-      <c r="D12">
-        <v>64.73</v>
-      </c>
-      <c r="E12">
-        <v>62.02</v>
-      </c>
-      <c r="F12">
-        <v>62.35</v>
-      </c>
-      <c r="G12">
-        <v>62.594999999999999</v>
-      </c>
-      <c r="H12">
-        <v>59.48</v>
-      </c>
-      <c r="I12">
-        <v>56.9</v>
-      </c>
-      <c r="J12">
-        <v>55.59</v>
-      </c>
-      <c r="K12">
-        <v>55.07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>61.844999999999999</v>
-      </c>
-      <c r="C13">
-        <v>60.04</v>
-      </c>
-      <c r="D13">
-        <v>58.875</v>
-      </c>
-      <c r="E13">
-        <v>56.594999999999999</v>
-      </c>
-      <c r="F13">
-        <v>56.965000000000003</v>
-      </c>
-      <c r="G13">
-        <v>55.92</v>
-      </c>
-      <c r="H13">
-        <v>54.594999999999999</v>
-      </c>
-      <c r="I13">
-        <v>51.615000000000002</v>
-      </c>
-      <c r="J13">
-        <v>51.67</v>
-      </c>
-      <c r="K13">
-        <v>50.994999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>57.365000000000002</v>
-      </c>
-      <c r="C14">
-        <v>55.82</v>
-      </c>
-      <c r="D14">
-        <v>55.96</v>
-      </c>
-      <c r="E14">
-        <v>53.494999999999997</v>
-      </c>
-      <c r="F14">
-        <v>54.215000000000003</v>
-      </c>
-      <c r="G14">
-        <v>52.465000000000003</v>
-      </c>
-      <c r="H14">
-        <v>52.704999999999998</v>
-      </c>
-      <c r="I14">
-        <v>51.62</v>
-      </c>
-      <c r="J14">
-        <v>51.14</v>
-      </c>
-      <c r="K14">
-        <v>50.99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,459 +2458,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>69.39</v>
+        <v>70.08</v>
       </c>
       <c r="C2">
-        <v>79.42</v>
+        <v>79.33</v>
       </c>
       <c r="D2">
-        <v>77.13</v>
+        <v>78.72</v>
       </c>
       <c r="E2">
-        <v>54.094999999999999</v>
+        <v>54.2</v>
       </c>
       <c r="F2">
-        <v>57.93</v>
+        <v>58.134999999999998</v>
       </c>
       <c r="G2">
-        <v>62.37</v>
+        <v>66.075000000000003</v>
       </c>
       <c r="H2">
-        <v>54.97</v>
+        <v>55.35</v>
       </c>
       <c r="I2">
-        <v>55.685000000000002</v>
+        <v>56.125</v>
       </c>
       <c r="J2">
-        <v>57.68</v>
+        <v>54.99</v>
       </c>
       <c r="K2">
-        <v>53.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.335000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>33.56</v>
+        <v>34.11</v>
       </c>
       <c r="C3">
-        <v>72.495000000000005</v>
+        <v>72.27</v>
       </c>
       <c r="D3">
-        <v>77.97</v>
+        <v>74.7</v>
       </c>
       <c r="E3">
-        <v>74.290000000000006</v>
+        <v>57.47</v>
       </c>
       <c r="F3">
-        <v>70.655000000000001</v>
+        <v>61.115000000000002</v>
       </c>
       <c r="G3">
-        <v>66.040000000000006</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="H3">
-        <v>57.17</v>
+        <v>57.655000000000001</v>
       </c>
       <c r="I3">
-        <v>56.615000000000002</v>
+        <v>57.1</v>
       </c>
       <c r="J3">
-        <v>56.04</v>
+        <v>56.56</v>
       </c>
       <c r="K3">
-        <v>55.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56.085000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>70.569999999999993</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="C4">
-        <v>74.415000000000006</v>
+        <v>72.53</v>
       </c>
       <c r="D4">
-        <v>74.575000000000003</v>
+        <v>73.11</v>
       </c>
       <c r="E4">
-        <v>60.77</v>
+        <v>60.74</v>
       </c>
       <c r="F4">
-        <v>66.55</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="G4">
-        <v>63.494999999999997</v>
+        <v>63.17</v>
       </c>
       <c r="H4">
-        <v>61.43</v>
+        <v>61.914999999999999</v>
       </c>
       <c r="I4">
-        <v>60.274999999999999</v>
+        <v>60.78</v>
       </c>
       <c r="J4">
-        <v>59.655000000000001</v>
+        <v>60.204999999999998</v>
       </c>
       <c r="K4">
-        <v>59.064999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>52.32</v>
+        <v>52.9</v>
       </c>
       <c r="C5">
-        <v>72.23</v>
+        <v>60.3</v>
       </c>
       <c r="D5">
-        <v>71.040000000000006</v>
+        <v>62.07</v>
       </c>
       <c r="E5">
-        <v>68.02</v>
+        <v>65.844999999999999</v>
       </c>
       <c r="F5">
-        <v>66.025000000000006</v>
+        <v>66.375</v>
       </c>
       <c r="G5">
-        <v>63.14</v>
+        <v>62.695</v>
       </c>
       <c r="H5">
-        <v>62.7</v>
+        <v>63.225000000000001</v>
       </c>
       <c r="I5">
-        <v>62.225000000000001</v>
+        <v>62.74</v>
       </c>
       <c r="J5">
-        <v>61.56</v>
+        <v>62.134999999999998</v>
       </c>
       <c r="K5">
-        <v>60.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.594999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>71.114999999999995</v>
+        <v>69.06</v>
       </c>
       <c r="C6">
-        <v>71.965000000000003</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="D6">
-        <v>71.194999999999993</v>
+        <v>71.094999999999999</v>
       </c>
       <c r="E6">
-        <v>68.355000000000004</v>
+        <v>68.144999999999996</v>
       </c>
       <c r="F6">
-        <v>66.084999999999994</v>
+        <v>66.614999999999995</v>
       </c>
       <c r="G6">
-        <v>63.01</v>
+        <v>62.445</v>
       </c>
       <c r="H6">
-        <v>62.075000000000003</v>
+        <v>61.66</v>
       </c>
       <c r="I6">
-        <v>59.24</v>
+        <v>58.844999999999999</v>
       </c>
       <c r="J6">
-        <v>57.33</v>
+        <v>58.204999999999998</v>
       </c>
       <c r="K6">
-        <v>62.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>71.709999999999994</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="C7">
-        <v>71.144999999999996</v>
+        <v>74.564999999999998</v>
       </c>
       <c r="D7">
-        <v>73.72</v>
+        <v>74.394999999999996</v>
       </c>
       <c r="E7">
-        <v>67.284999999999997</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="F7">
-        <v>65.564999999999998</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="G7">
-        <v>62.354999999999997</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H7">
-        <v>60.5</v>
+        <v>59.475000000000001</v>
       </c>
       <c r="I7">
-        <v>67.650000000000006</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="J7">
-        <v>56.79</v>
+        <v>57.545000000000002</v>
       </c>
       <c r="K7">
-        <v>65.760000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.435000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>69.504999999999995</v>
+        <v>73.75</v>
       </c>
       <c r="C8">
-        <v>74.38</v>
+        <v>74.275000000000006</v>
       </c>
       <c r="D8">
-        <v>69.415000000000006</v>
+        <v>69.424999999999997</v>
       </c>
       <c r="E8">
-        <v>66.8</v>
+        <v>74.36</v>
       </c>
       <c r="F8">
-        <v>66.11</v>
+        <v>65.015000000000001</v>
       </c>
       <c r="G8">
-        <v>62.494999999999997</v>
+        <v>61.33</v>
       </c>
       <c r="H8">
-        <v>59.84</v>
+        <v>58.814999999999998</v>
       </c>
       <c r="I8">
-        <v>57.03</v>
+        <v>56.82</v>
       </c>
       <c r="J8">
-        <v>56.33</v>
+        <v>57.375</v>
       </c>
       <c r="K8">
-        <v>66.674999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.364999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>78.765000000000001</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="C9">
         <v>68.45</v>
       </c>
       <c r="D9">
-        <v>66.745000000000005</v>
+        <v>77.42</v>
       </c>
       <c r="E9">
-        <v>65.504999999999995</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F9">
-        <v>63.96</v>
+        <v>63.265000000000001</v>
       </c>
       <c r="G9">
-        <v>61.814999999999998</v>
+        <v>61.81</v>
       </c>
       <c r="H9">
-        <v>69.194999999999993</v>
+        <v>69.864999999999995</v>
       </c>
       <c r="I9">
-        <v>66.284999999999997</v>
+        <v>66.995000000000005</v>
       </c>
       <c r="J9">
-        <v>65.715000000000003</v>
+        <v>66.444999999999993</v>
       </c>
       <c r="K9">
-        <v>65.564999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.344999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.284999999999997</v>
+        <v>76.25</v>
       </c>
       <c r="C10">
-        <v>71.44</v>
+        <v>76.28</v>
       </c>
       <c r="D10">
-        <v>68.650000000000006</v>
+        <v>75.694999999999993</v>
       </c>
       <c r="E10">
-        <v>64.38</v>
+        <v>68.819999999999993</v>
       </c>
       <c r="F10">
-        <v>63.47</v>
+        <v>68.44</v>
       </c>
       <c r="G10">
-        <v>72.894999999999996</v>
+        <v>72.91</v>
       </c>
       <c r="H10">
-        <v>68.915000000000006</v>
+        <v>69.655000000000001</v>
       </c>
       <c r="I10">
-        <v>65.435000000000002</v>
+        <v>66.204999999999998</v>
       </c>
       <c r="J10">
-        <v>64.754999999999995</v>
+        <v>65.545000000000002</v>
       </c>
       <c r="K10">
-        <v>64.034999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>67.415000000000006</v>
+        <v>74.12</v>
       </c>
       <c r="C11">
-        <v>72.314999999999998</v>
+        <v>72.25</v>
       </c>
       <c r="D11">
-        <v>72.765000000000001</v>
+        <v>72.66</v>
       </c>
       <c r="E11">
-        <v>64.17</v>
+        <v>70.8</v>
       </c>
       <c r="F11">
-        <v>57.015000000000001</v>
+        <v>71.314999999999998</v>
       </c>
       <c r="G11">
-        <v>61.034999999999997</v>
+        <v>70.11</v>
       </c>
       <c r="H11">
-        <v>65.37</v>
+        <v>66.12</v>
       </c>
       <c r="I11">
-        <v>63.524999999999999</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="J11">
-        <v>62.42</v>
+        <v>63.174999999999997</v>
       </c>
       <c r="K11">
-        <v>60.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>66.325000000000003</v>
+        <v>66.944999999999993</v>
       </c>
       <c r="C12">
-        <v>64.83</v>
+        <v>65.430000000000007</v>
       </c>
       <c r="D12">
-        <v>63.51</v>
+        <v>64.174999999999997</v>
       </c>
       <c r="E12">
-        <v>60.87</v>
+        <v>61.47</v>
       </c>
       <c r="F12">
-        <v>61.16</v>
+        <v>61.835000000000001</v>
       </c>
       <c r="G12">
-        <v>61.414999999999999</v>
+        <v>62.08</v>
       </c>
       <c r="H12">
-        <v>58.244999999999997</v>
+        <v>59.034999999999997</v>
       </c>
       <c r="I12">
-        <v>55.645000000000003</v>
+        <v>56.32</v>
       </c>
       <c r="J12">
-        <v>54.31</v>
+        <v>54.945</v>
       </c>
       <c r="K12">
-        <v>53.725000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>60.225000000000001</v>
+        <v>60.91</v>
       </c>
       <c r="C13">
-        <v>58.715000000000003</v>
+        <v>59.395000000000003</v>
       </c>
       <c r="D13">
-        <v>57.604999999999997</v>
+        <v>58.354999999999997</v>
       </c>
       <c r="E13">
+        <v>56.18</v>
+      </c>
+      <c r="F13">
+        <v>56.47</v>
+      </c>
+      <c r="G13">
         <v>55.454999999999998</v>
       </c>
-      <c r="F13">
-        <v>55.734999999999999</v>
-      </c>
-      <c r="G13">
-        <v>54.7</v>
-      </c>
       <c r="H13">
-        <v>53.32</v>
+        <v>53.994999999999997</v>
       </c>
       <c r="I13">
-        <v>50.36</v>
+        <v>50.99</v>
       </c>
       <c r="J13">
-        <v>50.335000000000001</v>
+        <v>50.975000000000001</v>
       </c>
       <c r="K13">
-        <v>49.604999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50.225000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>56.04</v>
+        <v>56.21</v>
       </c>
       <c r="C14">
-        <v>55.034999999999997</v>
+        <v>55.274999999999999</v>
       </c>
       <c r="D14">
-        <v>54.5</v>
+        <v>54.895000000000003</v>
       </c>
       <c r="E14">
-        <v>53.954999999999998</v>
+        <v>54.25</v>
       </c>
       <c r="F14">
-        <v>52.784999999999997</v>
+        <v>53.27</v>
       </c>
       <c r="G14">
-        <v>51.07</v>
+        <v>51.6</v>
       </c>
       <c r="H14">
-        <v>51.185000000000002</v>
+        <v>51.65</v>
       </c>
       <c r="I14">
-        <v>50.07</v>
+        <v>50.555</v>
       </c>
       <c r="J14">
-        <v>49.585000000000001</v>
+        <v>50.085000000000001</v>
       </c>
       <c r="K14">
-        <v>49.45</v>
+        <v>49.99</v>
       </c>
     </row>
   </sheetData>
@@ -2412,17 +2918,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2457,459 +2963,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70.08</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="C2">
-        <v>79.33</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="D2">
-        <v>78.72</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="E2">
-        <v>54.2</v>
+        <v>52.725000000000001</v>
       </c>
       <c r="F2">
-        <v>58.134999999999998</v>
+        <v>57.27</v>
       </c>
       <c r="G2">
-        <v>66.075000000000003</v>
+        <v>65.314999999999998</v>
       </c>
       <c r="H2">
-        <v>55.35</v>
+        <v>55.615000000000002</v>
       </c>
       <c r="I2">
-        <v>56.125</v>
+        <v>56.594999999999999</v>
       </c>
       <c r="J2">
-        <v>54.99</v>
+        <v>57.005000000000003</v>
       </c>
       <c r="K2">
-        <v>54.335000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.965000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>34.11</v>
+        <v>32.07</v>
       </c>
       <c r="C3">
-        <v>72.27</v>
+        <v>71.38</v>
       </c>
       <c r="D3">
-        <v>74.7</v>
+        <v>71.265000000000001</v>
       </c>
       <c r="E3">
-        <v>57.47</v>
+        <v>55.88</v>
       </c>
       <c r="F3">
-        <v>61.115000000000002</v>
+        <v>67.415000000000006</v>
       </c>
       <c r="G3">
-        <v>65.025000000000006</v>
+        <v>64.394999999999996</v>
       </c>
       <c r="H3">
-        <v>57.655000000000001</v>
+        <v>57.895000000000003</v>
       </c>
       <c r="I3">
-        <v>57.1</v>
+        <v>57.58</v>
       </c>
       <c r="J3">
-        <v>56.56</v>
+        <v>57.17</v>
       </c>
       <c r="K3">
-        <v>56.085000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56.704999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>71.040000000000006</v>
+        <v>67.12</v>
       </c>
       <c r="C4">
-        <v>72.53</v>
+        <v>69.034999999999997</v>
       </c>
       <c r="D4">
-        <v>73.11</v>
+        <v>70.055000000000007</v>
       </c>
       <c r="E4">
-        <v>60.74</v>
+        <v>60.84</v>
       </c>
       <c r="F4">
-        <v>65.790000000000006</v>
+        <v>64.924999999999997</v>
       </c>
       <c r="G4">
-        <v>63.17</v>
+        <v>62.66</v>
       </c>
       <c r="H4">
-        <v>61.914999999999999</v>
+        <v>62.28</v>
       </c>
       <c r="I4">
-        <v>60.78</v>
+        <v>61.35</v>
       </c>
       <c r="J4">
-        <v>60.204999999999998</v>
+        <v>60.905000000000001</v>
       </c>
       <c r="K4">
-        <v>59.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>52.9</v>
+        <v>49.87</v>
       </c>
       <c r="C5">
-        <v>60.3</v>
+        <v>57.5</v>
       </c>
       <c r="D5">
-        <v>62.07</v>
+        <v>59.85</v>
       </c>
       <c r="E5">
-        <v>65.844999999999999</v>
+        <v>65.775000000000006</v>
       </c>
       <c r="F5">
-        <v>66.375</v>
+        <v>64.67</v>
       </c>
       <c r="G5">
-        <v>62.695</v>
+        <v>62.54</v>
       </c>
       <c r="H5">
-        <v>63.225000000000001</v>
+        <v>63.65</v>
       </c>
       <c r="I5">
-        <v>62.74</v>
+        <v>63.39</v>
       </c>
       <c r="J5">
-        <v>62.134999999999998</v>
+        <v>62.905000000000001</v>
       </c>
       <c r="K5">
-        <v>61.594999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.405000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>69.06</v>
+        <v>69.72</v>
       </c>
       <c r="C6">
-        <v>69.849999999999994</v>
+        <v>70.655000000000001</v>
       </c>
       <c r="D6">
-        <v>71.094999999999999</v>
+        <v>67.084999999999994</v>
       </c>
       <c r="E6">
-        <v>68.144999999999996</v>
+        <v>66.655000000000001</v>
       </c>
       <c r="F6">
-        <v>66.614999999999995</v>
+        <v>66.105000000000004</v>
       </c>
       <c r="G6">
-        <v>62.445</v>
+        <v>62.564999999999998</v>
       </c>
       <c r="H6">
-        <v>61.66</v>
+        <v>62.134999999999998</v>
       </c>
       <c r="I6">
-        <v>58.844999999999999</v>
+        <v>59.48</v>
       </c>
       <c r="J6">
-        <v>58.204999999999998</v>
+        <v>58.534999999999997</v>
       </c>
       <c r="K6">
-        <v>63.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.444999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>67.260000000000005</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="C7">
-        <v>74.564999999999998</v>
+        <v>72.424999999999997</v>
       </c>
       <c r="D7">
-        <v>74.394999999999996</v>
+        <v>72.77</v>
       </c>
       <c r="E7">
-        <v>73.349999999999994</v>
+        <v>72.77</v>
       </c>
       <c r="F7">
-        <v>64.260000000000005</v>
+        <v>74.38</v>
       </c>
       <c r="G7">
-        <v>72.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="H7">
-        <v>59.475000000000001</v>
+        <v>61.05</v>
       </c>
       <c r="I7">
-        <v>68.290000000000006</v>
+        <v>69.295000000000002</v>
       </c>
       <c r="J7">
-        <v>57.545000000000002</v>
+        <v>58.34</v>
       </c>
       <c r="K7">
-        <v>66.435000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>73.75</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="C8">
-        <v>74.275000000000006</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>69.424999999999997</v>
+        <v>69.144999999999996</v>
       </c>
       <c r="E8">
-        <v>74.36</v>
+        <v>66.73</v>
       </c>
       <c r="F8">
-        <v>65.015000000000001</v>
+        <v>65.364999999999995</v>
       </c>
       <c r="G8">
-        <v>61.33</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="H8">
-        <v>58.814999999999998</v>
+        <v>60.56</v>
       </c>
       <c r="I8">
-        <v>56.82</v>
+        <v>56.805</v>
       </c>
       <c r="J8">
-        <v>57.375</v>
+        <v>58.424999999999997</v>
       </c>
       <c r="K8">
-        <v>67.364999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>67.959999999999994</v>
+        <v>80.11</v>
       </c>
       <c r="C9">
-        <v>68.45</v>
+        <v>79.284999999999997</v>
       </c>
       <c r="D9">
-        <v>77.42</v>
+        <v>78.38</v>
       </c>
       <c r="E9">
-        <v>65.099999999999994</v>
+        <v>66.064999999999998</v>
       </c>
       <c r="F9">
-        <v>63.265000000000001</v>
+        <v>75.694999999999993</v>
       </c>
       <c r="G9">
-        <v>61.81</v>
+        <v>74.03</v>
       </c>
       <c r="H9">
-        <v>69.864999999999995</v>
+        <v>71.265000000000001</v>
       </c>
       <c r="I9">
-        <v>66.995000000000005</v>
+        <v>68.334999999999994</v>
       </c>
       <c r="J9">
-        <v>66.444999999999993</v>
+        <v>67.805000000000007</v>
       </c>
       <c r="K9">
-        <v>66.344999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.614999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.25</v>
+        <v>76.405000000000001</v>
       </c>
       <c r="C10">
-        <v>76.28</v>
+        <v>77.52</v>
       </c>
       <c r="D10">
-        <v>75.694999999999993</v>
+        <v>77.12</v>
       </c>
       <c r="E10">
-        <v>68.819999999999993</v>
+        <v>65.209999999999994</v>
       </c>
       <c r="F10">
-        <v>68.44</v>
+        <v>64.44</v>
       </c>
       <c r="G10">
-        <v>72.91</v>
+        <v>73.064999999999998</v>
       </c>
       <c r="H10">
-        <v>69.655000000000001</v>
+        <v>71.125</v>
       </c>
       <c r="I10">
-        <v>66.204999999999998</v>
+        <v>67.59</v>
       </c>
       <c r="J10">
-        <v>65.545000000000002</v>
+        <v>66.864999999999995</v>
       </c>
       <c r="K10">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.040000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>74.12</v>
+        <v>75.5</v>
       </c>
       <c r="C11">
-        <v>72.25</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="D11">
-        <v>72.66</v>
+        <v>72.795000000000002</v>
       </c>
       <c r="E11">
-        <v>70.8</v>
+        <v>65.215000000000003</v>
       </c>
       <c r="F11">
-        <v>71.314999999999998</v>
+        <v>57.62</v>
       </c>
       <c r="G11">
-        <v>70.11</v>
+        <v>71.52</v>
       </c>
       <c r="H11">
-        <v>66.12</v>
+        <v>67.555000000000007</v>
       </c>
       <c r="I11">
-        <v>64.319999999999993</v>
+        <v>65.7</v>
       </c>
       <c r="J11">
-        <v>63.174999999999997</v>
+        <v>64.465000000000003</v>
       </c>
       <c r="K11">
-        <v>61.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.284999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>66.944999999999993</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="C12">
-        <v>65.430000000000007</v>
+        <v>66.825000000000003</v>
       </c>
       <c r="D12">
-        <v>64.174999999999997</v>
+        <v>65.564999999999998</v>
       </c>
       <c r="E12">
-        <v>61.47</v>
+        <v>62.755000000000003</v>
       </c>
       <c r="F12">
-        <v>61.835000000000001</v>
+        <v>63.14</v>
       </c>
       <c r="G12">
-        <v>62.08</v>
+        <v>63.435000000000002</v>
       </c>
       <c r="H12">
-        <v>59.034999999999997</v>
+        <v>60.244999999999997</v>
       </c>
       <c r="I12">
-        <v>56.32</v>
+        <v>57.465000000000003</v>
       </c>
       <c r="J12">
-        <v>54.945</v>
+        <v>55.99</v>
       </c>
       <c r="K12">
-        <v>54.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.395000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>60.91</v>
+        <v>62.405000000000001</v>
       </c>
       <c r="C13">
-        <v>59.395000000000003</v>
+        <v>60.814999999999998</v>
       </c>
       <c r="D13">
-        <v>58.354999999999997</v>
+        <v>59.66</v>
       </c>
       <c r="E13">
-        <v>56.18</v>
+        <v>57.43</v>
       </c>
       <c r="F13">
-        <v>56.47</v>
+        <v>57.744999999999997</v>
       </c>
       <c r="G13">
-        <v>55.454999999999998</v>
+        <v>56.674999999999997</v>
       </c>
       <c r="H13">
-        <v>53.994999999999997</v>
+        <v>55.075000000000003</v>
       </c>
       <c r="I13">
-        <v>50.99</v>
+        <v>51.905000000000001</v>
       </c>
       <c r="J13">
-        <v>50.975000000000001</v>
+        <v>51.89</v>
       </c>
       <c r="K13">
-        <v>50.225000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>56.21</v>
+        <v>56.93</v>
       </c>
       <c r="C14">
-        <v>55.274999999999999</v>
+        <v>55.384999999999998</v>
       </c>
       <c r="D14">
-        <v>54.895000000000003</v>
+        <v>55.68</v>
       </c>
       <c r="E14">
         <v>54.25</v>
       </c>
       <c r="F14">
-        <v>53.27</v>
+        <v>53.91</v>
       </c>
       <c r="G14">
-        <v>51.6</v>
+        <v>52.204999999999998</v>
       </c>
       <c r="H14">
-        <v>51.65</v>
+        <v>52.465000000000003</v>
       </c>
       <c r="I14">
-        <v>50.555</v>
+        <v>51.39</v>
       </c>
       <c r="J14">
-        <v>50.085000000000001</v>
+        <v>50.96</v>
       </c>
       <c r="K14">
-        <v>49.99</v>
+        <v>50.844999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2917,17 +3423,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2962,459 +3468,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>67.430000000000007</v>
+        <v>71.48</v>
       </c>
       <c r="C2">
-        <v>77.290000000000006</v>
+        <v>77.05</v>
       </c>
       <c r="D2">
-        <v>75.540000000000006</v>
+        <v>77.11</v>
       </c>
       <c r="E2">
-        <v>52.725000000000001</v>
+        <v>55.655000000000001</v>
       </c>
       <c r="F2">
-        <v>57.27</v>
+        <v>59.945</v>
       </c>
       <c r="G2">
-        <v>65.314999999999998</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="H2">
-        <v>55.615000000000002</v>
+        <v>56.96</v>
       </c>
       <c r="I2">
-        <v>56.594999999999999</v>
+        <v>57.65</v>
       </c>
       <c r="J2">
-        <v>57.005000000000003</v>
+        <v>56.045000000000002</v>
       </c>
       <c r="K2">
-        <v>54.965000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>32.07</v>
+        <v>33.94</v>
       </c>
       <c r="C3">
-        <v>71.38</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="D3">
-        <v>71.265000000000001</v>
+        <v>73.305000000000007</v>
       </c>
       <c r="E3">
-        <v>55.88</v>
+        <v>59.034999999999997</v>
       </c>
       <c r="F3">
-        <v>67.415000000000006</v>
+        <v>69.745000000000005</v>
       </c>
       <c r="G3">
-        <v>64.394999999999996</v>
+        <v>65.655000000000001</v>
       </c>
       <c r="H3">
-        <v>57.895000000000003</v>
+        <v>59.26</v>
       </c>
       <c r="I3">
-        <v>57.58</v>
+        <v>58.645000000000003</v>
       </c>
       <c r="J3">
-        <v>57.17</v>
+        <v>58.05</v>
       </c>
       <c r="K3">
-        <v>56.704999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57.484999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>67.12</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="C4">
-        <v>69.034999999999997</v>
+        <v>73.665000000000006</v>
       </c>
       <c r="D4">
-        <v>70.055000000000007</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="E4">
-        <v>60.84</v>
+        <v>60.86</v>
       </c>
       <c r="F4">
-        <v>64.924999999999997</v>
+        <v>67.864999999999995</v>
       </c>
       <c r="G4">
-        <v>62.66</v>
+        <v>64.83</v>
       </c>
       <c r="H4">
-        <v>62.28</v>
+        <v>63.72</v>
       </c>
       <c r="I4">
-        <v>61.35</v>
+        <v>62.46</v>
       </c>
       <c r="J4">
-        <v>60.905000000000001</v>
+        <v>61.814999999999998</v>
       </c>
       <c r="K4">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.225000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>49.87</v>
+        <v>53.62</v>
       </c>
       <c r="C5">
-        <v>57.5</v>
+        <v>61.86</v>
       </c>
       <c r="D5">
-        <v>59.85</v>
+        <v>63.88</v>
       </c>
       <c r="E5">
-        <v>65.775000000000006</v>
+        <v>68.06</v>
       </c>
       <c r="F5">
-        <v>64.67</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="G5">
-        <v>62.54</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="H5">
-        <v>63.65</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="I5">
-        <v>63.39</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="J5">
-        <v>62.905000000000001</v>
+        <v>63.83</v>
       </c>
       <c r="K5">
-        <v>62.405000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>69.72</v>
+        <v>67.834999999999994</v>
       </c>
       <c r="C6">
-        <v>70.655000000000001</v>
+        <v>69.704999999999998</v>
       </c>
       <c r="D6">
-        <v>67.084999999999994</v>
+        <v>72.204999999999998</v>
       </c>
       <c r="E6">
-        <v>66.655000000000001</v>
+        <v>70.22</v>
       </c>
       <c r="F6">
-        <v>66.105000000000004</v>
+        <v>67.674999999999997</v>
       </c>
       <c r="G6">
-        <v>62.564999999999998</v>
+        <v>64.534999999999997</v>
       </c>
       <c r="H6">
-        <v>62.134999999999998</v>
+        <v>63.49</v>
       </c>
       <c r="I6">
-        <v>59.48</v>
+        <v>60.534999999999997</v>
       </c>
       <c r="J6">
-        <v>58.534999999999997</v>
+        <v>59.08</v>
       </c>
       <c r="K6">
-        <v>64.444999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.245000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>64.849999999999994</v>
+        <v>69.63</v>
       </c>
       <c r="C7">
-        <v>72.424999999999997</v>
+        <v>76.760000000000005</v>
       </c>
       <c r="D7">
-        <v>72.77</v>
+        <v>76.454999999999998</v>
       </c>
       <c r="E7">
-        <v>72.77</v>
+        <v>72.09</v>
       </c>
       <c r="F7">
-        <v>74.38</v>
+        <v>71.924999999999997</v>
       </c>
       <c r="G7">
-        <v>73</v>
+        <v>64.064999999999998</v>
       </c>
       <c r="H7">
-        <v>61.05</v>
+        <v>62.07</v>
       </c>
       <c r="I7">
-        <v>69.295000000000002</v>
+        <v>70.204999999999998</v>
       </c>
       <c r="J7">
-        <v>58.34</v>
+        <v>58.494999999999997</v>
       </c>
       <c r="K7">
-        <v>67.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68.224999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>73.290000000000006</v>
+        <v>76.525000000000006</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="D8">
-        <v>69.144999999999996</v>
+        <v>70.78</v>
       </c>
       <c r="E8">
-        <v>66.73</v>
+        <v>68.55</v>
       </c>
       <c r="F8">
-        <v>65.364999999999995</v>
+        <v>70.34</v>
       </c>
       <c r="G8">
-        <v>73.930000000000007</v>
+        <v>64.23</v>
       </c>
       <c r="H8">
-        <v>60.56</v>
+        <v>61.365000000000002</v>
       </c>
       <c r="I8">
-        <v>56.805</v>
+        <v>56.715000000000003</v>
       </c>
       <c r="J8">
-        <v>58.424999999999997</v>
+        <v>58.265000000000001</v>
       </c>
       <c r="K8">
-        <v>68.569999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69.174999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>80.11</v>
+        <v>82.515000000000001</v>
       </c>
       <c r="C9">
-        <v>79.284999999999997</v>
+        <v>81.295000000000002</v>
       </c>
       <c r="D9">
-        <v>78.38</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="E9">
-        <v>66.064999999999998</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="F9">
-        <v>75.694999999999993</v>
+        <v>76.97</v>
       </c>
       <c r="G9">
-        <v>74.03</v>
+        <v>74.98</v>
       </c>
       <c r="H9">
-        <v>71.265000000000001</v>
+        <v>71.855000000000004</v>
       </c>
       <c r="I9">
-        <v>68.334999999999994</v>
+        <v>68.825000000000003</v>
       </c>
       <c r="J9">
-        <v>67.805000000000007</v>
+        <v>68.2</v>
       </c>
       <c r="K9">
-        <v>67.614999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.405000000000001</v>
+        <v>76.655000000000001</v>
       </c>
       <c r="C10">
-        <v>77.52</v>
+        <v>79.144999999999996</v>
       </c>
       <c r="D10">
-        <v>77.12</v>
+        <v>70.064999999999998</v>
       </c>
       <c r="E10">
-        <v>65.209999999999994</v>
+        <v>65.424999999999997</v>
       </c>
       <c r="F10">
-        <v>64.44</v>
+        <v>64.8</v>
       </c>
       <c r="G10">
-        <v>73.064999999999998</v>
+        <v>73.165000000000006</v>
       </c>
       <c r="H10">
-        <v>71.125</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="I10">
-        <v>67.59</v>
+        <v>67.924999999999997</v>
       </c>
       <c r="J10">
-        <v>66.864999999999995</v>
+        <v>67.185000000000002</v>
       </c>
       <c r="K10">
-        <v>66.040000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>75.5</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="C11">
-        <v>72.430000000000007</v>
+        <v>72.655000000000001</v>
       </c>
       <c r="D11">
-        <v>72.795000000000002</v>
+        <v>73.084999999999994</v>
       </c>
       <c r="E11">
-        <v>65.215000000000003</v>
+        <v>72.61</v>
       </c>
       <c r="F11">
-        <v>57.62</v>
+        <v>73.17</v>
       </c>
       <c r="G11">
-        <v>71.52</v>
+        <v>66.795000000000002</v>
       </c>
       <c r="H11">
-        <v>67.555000000000007</v>
+        <v>67.77</v>
       </c>
       <c r="I11">
-        <v>65.7</v>
+        <v>65.875</v>
       </c>
       <c r="J11">
-        <v>64.465000000000003</v>
+        <v>64.754999999999995</v>
       </c>
       <c r="K11">
-        <v>62.284999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>68.319999999999993</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="C12">
-        <v>66.825000000000003</v>
+        <v>67.37</v>
       </c>
       <c r="D12">
-        <v>65.564999999999998</v>
+        <v>65.88</v>
       </c>
       <c r="E12">
-        <v>62.755000000000003</v>
+        <v>63.07</v>
       </c>
       <c r="F12">
-        <v>63.14</v>
+        <v>63.41</v>
       </c>
       <c r="G12">
-        <v>63.435000000000002</v>
+        <v>63.704999999999998</v>
       </c>
       <c r="H12">
-        <v>60.244999999999997</v>
+        <v>60.465000000000003</v>
       </c>
       <c r="I12">
-        <v>57.465000000000003</v>
+        <v>57.75</v>
       </c>
       <c r="J12">
-        <v>55.99</v>
+        <v>56.34</v>
       </c>
       <c r="K12">
-        <v>55.395000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>62.405000000000001</v>
+        <v>62.66</v>
       </c>
       <c r="C13">
-        <v>60.814999999999998</v>
+        <v>61.06</v>
       </c>
       <c r="D13">
-        <v>59.66</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>57.43</v>
+        <v>57.645000000000003</v>
       </c>
       <c r="F13">
-        <v>57.744999999999997</v>
+        <v>57.92</v>
       </c>
       <c r="G13">
-        <v>56.674999999999997</v>
+        <v>56.82</v>
       </c>
       <c r="H13">
-        <v>55.075000000000003</v>
+        <v>55.395000000000003</v>
       </c>
       <c r="I13">
-        <v>51.905000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="J13">
-        <v>51.89</v>
+        <v>52.375</v>
       </c>
       <c r="K13">
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51.715000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>56.93</v>
+        <v>58.02</v>
       </c>
       <c r="C14">
-        <v>55.384999999999998</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>55.68</v>
+        <v>56.64</v>
       </c>
       <c r="E14">
-        <v>54.25</v>
+        <v>54.585000000000001</v>
       </c>
       <c r="F14">
-        <v>53.91</v>
+        <v>54.774999999999999</v>
       </c>
       <c r="G14">
-        <v>52.204999999999998</v>
+        <v>52.994999999999997</v>
       </c>
       <c r="H14">
-        <v>52.465000000000003</v>
+        <v>53.395000000000003</v>
       </c>
       <c r="I14">
-        <v>51.39</v>
+        <v>52.274999999999999</v>
       </c>
       <c r="J14">
-        <v>50.96</v>
+        <v>51.85</v>
       </c>
       <c r="K14">
-        <v>50.844999999999999</v>
+        <v>51.725000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3422,17 +3928,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3467,459 +3973,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>71.48</v>
+        <v>68.58</v>
       </c>
       <c r="C2">
-        <v>77.05</v>
+        <v>72.53</v>
       </c>
       <c r="D2">
-        <v>77.11</v>
+        <v>73.27</v>
       </c>
       <c r="E2">
-        <v>55.655000000000001</v>
+        <v>52.97</v>
       </c>
       <c r="F2">
-        <v>59.945</v>
+        <v>56.935000000000002</v>
       </c>
       <c r="G2">
-        <v>64.680000000000007</v>
+        <v>61.03</v>
       </c>
       <c r="H2">
-        <v>56.96</v>
+        <v>54.465000000000003</v>
       </c>
       <c r="I2">
-        <v>57.65</v>
+        <v>55.31</v>
       </c>
       <c r="J2">
-        <v>56.045000000000002</v>
+        <v>58.9</v>
       </c>
       <c r="K2">
-        <v>55.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>33.94</v>
+        <v>32.92</v>
       </c>
       <c r="C3">
-        <v>69.489999999999995</v>
+        <v>68.02</v>
       </c>
       <c r="D3">
-        <v>73.305000000000007</v>
+        <v>64.114999999999995</v>
       </c>
       <c r="E3">
-        <v>59.034999999999997</v>
+        <v>56.145000000000003</v>
       </c>
       <c r="F3">
-        <v>69.745000000000005</v>
+        <v>59.835000000000001</v>
       </c>
       <c r="G3">
-        <v>65.655000000000001</v>
+        <v>61.37</v>
       </c>
       <c r="H3">
-        <v>59.26</v>
+        <v>56.695</v>
       </c>
       <c r="I3">
-        <v>58.645000000000003</v>
+        <v>56.265000000000001</v>
       </c>
       <c r="J3">
-        <v>58.05</v>
+        <v>55.75</v>
       </c>
       <c r="K3">
-        <v>57.484999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55.265000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>67.150000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C4">
-        <v>73.665000000000006</v>
+        <v>67.22</v>
       </c>
       <c r="D4">
-        <v>74.650000000000006</v>
+        <v>68.88</v>
       </c>
       <c r="E4">
-        <v>60.86</v>
+        <v>60.814999999999998</v>
       </c>
       <c r="F4">
-        <v>67.864999999999995</v>
+        <v>64.3</v>
       </c>
       <c r="G4">
-        <v>64.83</v>
+        <v>61.905000000000001</v>
       </c>
       <c r="H4">
-        <v>63.72</v>
+        <v>60.935000000000002</v>
       </c>
       <c r="I4">
-        <v>62.46</v>
+        <v>59.9</v>
       </c>
       <c r="J4">
-        <v>61.814999999999998</v>
+        <v>59.395000000000003</v>
       </c>
       <c r="K4">
-        <v>61.225000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58.825000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>53.62</v>
+        <v>51.36</v>
       </c>
       <c r="C5">
-        <v>61.86</v>
+        <v>58.39</v>
       </c>
       <c r="D5">
-        <v>63.88</v>
+        <v>60.64</v>
       </c>
       <c r="E5">
-        <v>68.06</v>
+        <v>65.36</v>
       </c>
       <c r="F5">
-        <v>67.540000000000006</v>
+        <v>65.03</v>
       </c>
       <c r="G5">
-        <v>64.680000000000007</v>
+        <v>62.48</v>
       </c>
       <c r="H5">
-        <v>65.069999999999993</v>
+        <v>62.225000000000001</v>
       </c>
       <c r="I5">
-        <v>64.489999999999995</v>
+        <v>61.87</v>
       </c>
       <c r="J5">
-        <v>63.83</v>
+        <v>61.3</v>
       </c>
       <c r="K5">
-        <v>63.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.744999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>67.834999999999994</v>
+        <v>68.234999999999999</v>
       </c>
       <c r="C6">
-        <v>69.704999999999998</v>
+        <v>67.564999999999998</v>
       </c>
       <c r="D6">
-        <v>72.204999999999998</v>
+        <v>67.275000000000006</v>
       </c>
       <c r="E6">
-        <v>70.22</v>
+        <v>65.3</v>
       </c>
       <c r="F6">
-        <v>67.674999999999997</v>
+        <v>65.355000000000004</v>
       </c>
       <c r="G6">
-        <v>64.534999999999997</v>
+        <v>60.604999999999997</v>
       </c>
       <c r="H6">
-        <v>63.49</v>
+        <v>59.905000000000001</v>
       </c>
       <c r="I6">
-        <v>60.534999999999997</v>
+        <v>57.25</v>
       </c>
       <c r="J6">
-        <v>59.08</v>
+        <v>57.424999999999997</v>
       </c>
       <c r="K6">
-        <v>65.245000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>69.63</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="C7">
-        <v>76.760000000000005</v>
+        <v>72.61</v>
       </c>
       <c r="D7">
-        <v>76.454999999999998</v>
+        <v>72.844999999999999</v>
       </c>
       <c r="E7">
-        <v>72.09</v>
+        <v>71.64</v>
       </c>
       <c r="F7">
-        <v>71.924999999999997</v>
+        <v>72.894999999999996</v>
       </c>
       <c r="G7">
-        <v>64.064999999999998</v>
+        <v>71.41</v>
       </c>
       <c r="H7">
-        <v>62.07</v>
+        <v>58.965000000000003</v>
       </c>
       <c r="I7">
-        <v>70.204999999999998</v>
+        <v>67.41</v>
       </c>
       <c r="J7">
-        <v>58.494999999999997</v>
+        <v>56.76</v>
       </c>
       <c r="K7">
-        <v>68.224999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.569999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>76.525000000000006</v>
+        <v>73.95</v>
       </c>
       <c r="C8">
-        <v>77.150000000000006</v>
+        <v>73.78</v>
       </c>
       <c r="D8">
-        <v>70.78</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="E8">
-        <v>68.55</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="F8">
-        <v>70.34</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="G8">
-        <v>64.23</v>
+        <v>72.034999999999997</v>
       </c>
       <c r="H8">
-        <v>61.365000000000002</v>
+        <v>58.295000000000002</v>
       </c>
       <c r="I8">
-        <v>56.715000000000003</v>
+        <v>56.854999999999997</v>
       </c>
       <c r="J8">
-        <v>58.265000000000001</v>
+        <v>56.055</v>
       </c>
       <c r="K8">
-        <v>69.174999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>82.515000000000001</v>
+        <v>77.965000000000003</v>
       </c>
       <c r="C9">
-        <v>81.295000000000002</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="D9">
-        <v>80.430000000000007</v>
+        <v>76.465000000000003</v>
       </c>
       <c r="E9">
-        <v>66.849999999999994</v>
+        <v>74.584999999999994</v>
       </c>
       <c r="F9">
-        <v>76.97</v>
+        <v>73.52</v>
       </c>
       <c r="G9">
-        <v>74.98</v>
+        <v>71.864999999999995</v>
       </c>
       <c r="H9">
-        <v>71.855000000000004</v>
+        <v>69.12</v>
       </c>
       <c r="I9">
-        <v>68.825000000000003</v>
+        <v>66.234999999999999</v>
       </c>
       <c r="J9">
-        <v>68.2</v>
+        <v>65.724999999999994</v>
       </c>
       <c r="K9">
-        <v>68.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.510000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.655000000000001</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C10">
-        <v>79.144999999999996</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="D10">
-        <v>70.064999999999998</v>
+        <v>74.935000000000002</v>
       </c>
       <c r="E10">
-        <v>65.424999999999997</v>
+        <v>73.625</v>
       </c>
       <c r="F10">
+        <v>73.42</v>
+      </c>
+      <c r="G10">
+        <v>73.155000000000001</v>
+      </c>
+      <c r="H10">
+        <v>69.004999999999995</v>
+      </c>
+      <c r="I10">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="J10">
         <v>64.8</v>
       </c>
-      <c r="G10">
-        <v>73.165000000000006</v>
-      </c>
-      <c r="H10">
-        <v>71.489999999999995</v>
-      </c>
-      <c r="I10">
-        <v>67.924999999999997</v>
-      </c>
-      <c r="J10">
-        <v>67.185000000000002</v>
-      </c>
       <c r="K10">
-        <v>66.459999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.994999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>76.650000000000006</v>
+        <v>73.83</v>
       </c>
       <c r="C11">
-        <v>72.655000000000001</v>
+        <v>72.614999999999995</v>
       </c>
       <c r="D11">
-        <v>73.084999999999994</v>
+        <v>73.06</v>
       </c>
       <c r="E11">
-        <v>72.61</v>
+        <v>70.025000000000006</v>
       </c>
       <c r="F11">
-        <v>73.17</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="G11">
-        <v>66.795000000000002</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="H11">
-        <v>67.77</v>
+        <v>65.525000000000006</v>
       </c>
       <c r="I11">
-        <v>65.875</v>
+        <v>63.704999999999998</v>
       </c>
       <c r="J11">
-        <v>64.754999999999995</v>
+        <v>62.53</v>
       </c>
       <c r="K11">
-        <v>62.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.344999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>68.739999999999995</v>
+        <v>67.03</v>
       </c>
       <c r="C12">
-        <v>67.37</v>
+        <v>65.290000000000006</v>
       </c>
       <c r="D12">
-        <v>65.88</v>
+        <v>63.895000000000003</v>
       </c>
       <c r="E12">
-        <v>63.07</v>
+        <v>61.064999999999998</v>
       </c>
       <c r="F12">
-        <v>63.41</v>
+        <v>61.43</v>
       </c>
       <c r="G12">
-        <v>63.704999999999998</v>
+        <v>61.62</v>
       </c>
       <c r="H12">
-        <v>60.465000000000003</v>
+        <v>58.5</v>
       </c>
       <c r="I12">
-        <v>57.75</v>
+        <v>55.744999999999997</v>
       </c>
       <c r="J12">
-        <v>56.34</v>
+        <v>54.28</v>
       </c>
       <c r="K12">
-        <v>55.844999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53.494999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>62.66</v>
+        <v>61.05</v>
       </c>
       <c r="C13">
-        <v>61.06</v>
+        <v>59.234999999999999</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>58.15</v>
       </c>
       <c r="E13">
-        <v>57.645000000000003</v>
+        <v>55.715000000000003</v>
       </c>
       <c r="F13">
-        <v>57.92</v>
+        <v>56.195</v>
       </c>
       <c r="G13">
-        <v>56.82</v>
+        <v>54.975000000000001</v>
       </c>
       <c r="H13">
-        <v>55.395000000000003</v>
+        <v>53.45</v>
       </c>
       <c r="I13">
-        <v>52.3</v>
+        <v>50.305</v>
       </c>
       <c r="J13">
-        <v>52.375</v>
+        <v>50.04</v>
       </c>
       <c r="K13">
-        <v>51.715000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>58.02</v>
+        <v>55.835000000000001</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>55.765000000000001</v>
       </c>
       <c r="D14">
-        <v>56.64</v>
+        <v>54.37</v>
       </c>
       <c r="E14">
-        <v>54.585000000000001</v>
+        <v>54.48</v>
       </c>
       <c r="F14">
-        <v>54.774999999999999</v>
+        <v>52.505000000000003</v>
       </c>
       <c r="G14">
-        <v>52.994999999999997</v>
+        <v>50.66</v>
       </c>
       <c r="H14">
-        <v>53.395000000000003</v>
+        <v>50.465000000000003</v>
       </c>
       <c r="I14">
-        <v>52.274999999999999</v>
+        <v>49.13</v>
       </c>
       <c r="J14">
-        <v>51.85</v>
+        <v>48.46</v>
       </c>
       <c r="K14">
-        <v>51.725000000000001</v>
+        <v>48.174999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3927,17 +4433,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3972,459 +4478,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>68.58</v>
+        <v>44.844999999999999</v>
       </c>
       <c r="C2">
-        <v>72.53</v>
+        <v>72.489999999999995</v>
       </c>
       <c r="D2">
-        <v>73.27</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="E2">
-        <v>52.97</v>
+        <v>52.645000000000003</v>
       </c>
       <c r="F2">
-        <v>56.935000000000002</v>
+        <v>56.564999999999998</v>
       </c>
       <c r="G2">
-        <v>61.03</v>
+        <v>63.085000000000001</v>
       </c>
       <c r="H2">
-        <v>54.465000000000003</v>
+        <v>54.115000000000002</v>
       </c>
       <c r="I2">
-        <v>55.31</v>
+        <v>54.924999999999997</v>
       </c>
       <c r="J2">
-        <v>58.9</v>
+        <v>58.435000000000002</v>
       </c>
       <c r="K2">
-        <v>53.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53.234999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>32.92</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="C3">
-        <v>68.02</v>
+        <v>68.525000000000006</v>
       </c>
       <c r="D3">
-        <v>64.114999999999995</v>
+        <v>62.29</v>
       </c>
       <c r="E3">
-        <v>56.145000000000003</v>
+        <v>55.664999999999999</v>
       </c>
       <c r="F3">
-        <v>59.835000000000001</v>
+        <v>59.375</v>
       </c>
       <c r="G3">
-        <v>61.37</v>
+        <v>61.174999999999997</v>
       </c>
       <c r="H3">
-        <v>56.695</v>
+        <v>56.295000000000002</v>
       </c>
       <c r="I3">
-        <v>56.265000000000001</v>
+        <v>55.86</v>
       </c>
       <c r="J3">
-        <v>55.75</v>
+        <v>55.39</v>
       </c>
       <c r="K3">
-        <v>55.265000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.895000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>66.900000000000006</v>
+        <v>67.25</v>
       </c>
       <c r="C4">
-        <v>67.22</v>
+        <v>67.48</v>
       </c>
       <c r="D4">
-        <v>68.88</v>
+        <v>68.224999999999994</v>
       </c>
       <c r="E4">
-        <v>60.814999999999998</v>
+        <v>60.835000000000001</v>
       </c>
       <c r="F4">
-        <v>64.3</v>
+        <v>63.84</v>
       </c>
       <c r="G4">
-        <v>61.905000000000001</v>
+        <v>61.075000000000003</v>
       </c>
       <c r="H4">
-        <v>60.935000000000002</v>
+        <v>60.51</v>
       </c>
       <c r="I4">
-        <v>59.9</v>
+        <v>59.494999999999997</v>
       </c>
       <c r="J4">
-        <v>59.395000000000003</v>
+        <v>58.984999999999999</v>
       </c>
       <c r="K4">
-        <v>58.825000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58.445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>51.36</v>
+        <v>50.89</v>
       </c>
       <c r="C5">
-        <v>58.39</v>
+        <v>58.38</v>
       </c>
       <c r="D5">
-        <v>60.64</v>
+        <v>60.155000000000001</v>
       </c>
       <c r="E5">
-        <v>65.36</v>
+        <v>63.744999999999997</v>
       </c>
       <c r="F5">
-        <v>65.03</v>
+        <v>62.465000000000003</v>
       </c>
       <c r="G5">
-        <v>62.48</v>
+        <v>61.86</v>
       </c>
       <c r="H5">
-        <v>62.225000000000001</v>
+        <v>61.74</v>
       </c>
       <c r="I5">
-        <v>61.87</v>
+        <v>61.39</v>
       </c>
       <c r="J5">
-        <v>61.3</v>
+        <v>60.85</v>
       </c>
       <c r="K5">
-        <v>60.744999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.325000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>68.234999999999999</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="C6">
-        <v>67.564999999999998</v>
+        <v>68.849999999999994</v>
       </c>
       <c r="D6">
-        <v>67.275000000000006</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="E6">
-        <v>65.3</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="F6">
-        <v>65.355000000000004</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="G6">
-        <v>60.604999999999997</v>
+        <v>59.994999999999997</v>
       </c>
       <c r="H6">
-        <v>59.905000000000001</v>
+        <v>59.435000000000002</v>
       </c>
       <c r="I6">
-        <v>57.25</v>
+        <v>56.854999999999997</v>
       </c>
       <c r="J6">
-        <v>57.424999999999997</v>
+        <v>57.064999999999998</v>
       </c>
       <c r="K6">
-        <v>62.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>64.709999999999994</v>
+        <v>65.040000000000006</v>
       </c>
       <c r="C7">
-        <v>72.61</v>
+        <v>71.784999999999997</v>
       </c>
       <c r="D7">
-        <v>72.844999999999999</v>
+        <v>71.36</v>
       </c>
       <c r="E7">
-        <v>71.64</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="F7">
-        <v>72.894999999999996</v>
+        <v>72.16</v>
       </c>
       <c r="G7">
-        <v>71.41</v>
+        <v>70.63</v>
       </c>
       <c r="H7">
-        <v>58.965000000000003</v>
+        <v>58.46</v>
       </c>
       <c r="I7">
-        <v>67.41</v>
+        <v>66.87</v>
       </c>
       <c r="J7">
-        <v>56.76</v>
+        <v>55.994999999999997</v>
       </c>
       <c r="K7">
-        <v>65.569999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.105000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>73.95</v>
+        <v>71.665000000000006</v>
       </c>
       <c r="C8">
-        <v>73.78</v>
+        <v>71.814999999999998</v>
       </c>
       <c r="D8">
-        <v>67.849999999999994</v>
+        <v>73.94</v>
       </c>
       <c r="E8">
-        <v>73.510000000000005</v>
+        <v>72.45</v>
       </c>
       <c r="F8">
-        <v>64.430000000000007</v>
+        <v>74.015000000000001</v>
       </c>
       <c r="G8">
-        <v>72.034999999999997</v>
+        <v>71.234999999999999</v>
       </c>
       <c r="H8">
-        <v>58.295000000000002</v>
+        <v>57.74</v>
       </c>
       <c r="I8">
-        <v>56.854999999999997</v>
+        <v>57.39</v>
       </c>
       <c r="J8">
-        <v>56.055</v>
+        <v>55.375</v>
       </c>
       <c r="K8">
-        <v>66.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.055000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>77.965000000000003</v>
+        <v>77.405000000000001</v>
       </c>
       <c r="C9">
-        <v>77.150000000000006</v>
+        <v>76.569999999999993</v>
       </c>
       <c r="D9">
-        <v>76.465000000000003</v>
+        <v>75.694999999999993</v>
       </c>
       <c r="E9">
-        <v>74.584999999999994</v>
+        <v>73.905000000000001</v>
       </c>
       <c r="F9">
-        <v>73.52</v>
+        <v>72.88</v>
       </c>
       <c r="G9">
-        <v>71.864999999999995</v>
+        <v>71.295000000000002</v>
       </c>
       <c r="H9">
-        <v>69.12</v>
+        <v>68.64</v>
       </c>
       <c r="I9">
-        <v>66.234999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="J9">
-        <v>65.724999999999994</v>
+        <v>65.260000000000005</v>
       </c>
       <c r="K9">
-        <v>65.510000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.599999999999994</v>
+        <v>68.484999999999999</v>
       </c>
       <c r="C10">
-        <v>75.260000000000005</v>
+        <v>74.665000000000006</v>
       </c>
       <c r="D10">
-        <v>74.935000000000002</v>
+        <v>74.055000000000007</v>
       </c>
       <c r="E10">
-        <v>73.625</v>
+        <v>72.97</v>
       </c>
       <c r="F10">
-        <v>73.42</v>
+        <v>72.8</v>
       </c>
       <c r="G10">
-        <v>73.155000000000001</v>
+        <v>73.055000000000007</v>
       </c>
       <c r="H10">
-        <v>69.004999999999995</v>
+        <v>68.48</v>
       </c>
       <c r="I10">
-        <v>65.540000000000006</v>
+        <v>65.06</v>
       </c>
       <c r="J10">
-        <v>64.8</v>
+        <v>64.38</v>
       </c>
       <c r="K10">
-        <v>63.994999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>73.83</v>
+        <v>73.245000000000005</v>
       </c>
       <c r="C11">
-        <v>72.614999999999995</v>
+        <v>72.594999999999999</v>
       </c>
       <c r="D11">
-        <v>73.06</v>
+        <v>68.33</v>
       </c>
       <c r="E11">
-        <v>70.025000000000006</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="F11">
-        <v>70.680000000000007</v>
+        <v>70.19</v>
       </c>
       <c r="G11">
-        <v>69.459999999999994</v>
+        <v>69.010000000000005</v>
       </c>
       <c r="H11">
-        <v>65.525000000000006</v>
+        <v>65.12</v>
       </c>
       <c r="I11">
-        <v>63.704999999999998</v>
+        <v>63.3</v>
       </c>
       <c r="J11">
-        <v>62.53</v>
+        <v>62.164999999999999</v>
       </c>
       <c r="K11">
-        <v>60.344999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>67.03</v>
+        <v>66.16</v>
       </c>
       <c r="C12">
-        <v>65.290000000000006</v>
+        <v>64.650000000000006</v>
       </c>
       <c r="D12">
-        <v>63.895000000000003</v>
+        <v>63.3</v>
       </c>
       <c r="E12">
-        <v>61.064999999999998</v>
+        <v>60.604999999999997</v>
       </c>
       <c r="F12">
-        <v>61.43</v>
+        <v>60.965000000000003</v>
       </c>
       <c r="G12">
-        <v>61.62</v>
+        <v>61.215000000000003</v>
       </c>
       <c r="H12">
-        <v>58.5</v>
+        <v>58.094999999999999</v>
       </c>
       <c r="I12">
-        <v>55.744999999999997</v>
+        <v>55.44</v>
       </c>
       <c r="J12">
-        <v>54.28</v>
+        <v>54.06</v>
       </c>
       <c r="K12">
         <v>53.494999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>61.05</v>
+        <v>60.255000000000003</v>
       </c>
       <c r="C13">
-        <v>59.234999999999999</v>
+        <v>58.73</v>
       </c>
       <c r="D13">
-        <v>58.15</v>
+        <v>57.604999999999997</v>
       </c>
       <c r="E13">
-        <v>55.715000000000003</v>
+        <v>55.41</v>
       </c>
       <c r="F13">
-        <v>56.195</v>
+        <v>55.7</v>
       </c>
       <c r="G13">
-        <v>54.975000000000001</v>
+        <v>54.62</v>
       </c>
       <c r="H13">
-        <v>53.45</v>
+        <v>53.174999999999997</v>
       </c>
       <c r="I13">
-        <v>50.305</v>
+        <v>50.15</v>
       </c>
       <c r="J13">
-        <v>50.04</v>
+        <v>50.16</v>
       </c>
       <c r="K13">
-        <v>49.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>55.835000000000001</v>
+        <v>55.9</v>
       </c>
       <c r="C14">
-        <v>55.765000000000001</v>
+        <v>55.295000000000002</v>
       </c>
       <c r="D14">
-        <v>54.37</v>
+        <v>54.34</v>
       </c>
       <c r="E14">
-        <v>54.48</v>
+        <v>52.484999999999999</v>
       </c>
       <c r="F14">
-        <v>52.505000000000003</v>
+        <v>52.55</v>
       </c>
       <c r="G14">
-        <v>50.66</v>
+        <v>50.79</v>
       </c>
       <c r="H14">
-        <v>50.465000000000003</v>
+        <v>51.024999999999999</v>
       </c>
       <c r="I14">
-        <v>49.13</v>
+        <v>49.905000000000001</v>
       </c>
       <c r="J14">
-        <v>48.46</v>
+        <v>49.41</v>
       </c>
       <c r="K14">
-        <v>48.174999999999997</v>
+        <v>49.26</v>
       </c>
     </row>
   </sheetData>
@@ -4432,17 +4938,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4477,459 +4983,459 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>44.844999999999999</v>
+        <v>70.72</v>
       </c>
       <c r="C2">
-        <v>72.489999999999995</v>
+        <v>71.72</v>
       </c>
       <c r="D2">
-        <v>68.010000000000005</v>
+        <v>70.91</v>
       </c>
       <c r="E2">
-        <v>52.645000000000003</v>
+        <v>54.39</v>
       </c>
       <c r="F2">
-        <v>56.564999999999998</v>
+        <v>58.42</v>
       </c>
       <c r="G2">
-        <v>63.085000000000001</v>
+        <v>64.33</v>
       </c>
       <c r="H2">
-        <v>54.115000000000002</v>
+        <v>55.44</v>
       </c>
       <c r="I2">
-        <v>54.924999999999997</v>
+        <v>56.145000000000003</v>
       </c>
       <c r="J2">
-        <v>58.435000000000002</v>
+        <v>55.03</v>
       </c>
       <c r="K2">
-        <v>53.234999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>32.770000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C3">
-        <v>68.525000000000006</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="D3">
-        <v>62.29</v>
+        <v>66.165000000000006</v>
       </c>
       <c r="E3">
-        <v>55.664999999999999</v>
+        <v>57.78</v>
       </c>
       <c r="F3">
-        <v>59.375</v>
+        <v>61.43</v>
       </c>
       <c r="G3">
-        <v>61.174999999999997</v>
+        <v>63.06</v>
       </c>
       <c r="H3">
-        <v>56.295000000000002</v>
+        <v>57.72</v>
       </c>
       <c r="I3">
-        <v>55.86</v>
+        <v>57.145000000000003</v>
       </c>
       <c r="J3">
-        <v>55.39</v>
+        <v>56.575000000000003</v>
       </c>
       <c r="K3">
-        <v>54.895000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56.015000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>67.25</v>
+        <v>66.55</v>
       </c>
       <c r="C4">
-        <v>67.48</v>
+        <v>69.760000000000005</v>
       </c>
       <c r="D4">
-        <v>68.224999999999994</v>
+        <v>70.655000000000001</v>
       </c>
       <c r="E4">
-        <v>60.835000000000001</v>
+        <v>60.86</v>
       </c>
       <c r="F4">
-        <v>63.84</v>
+        <v>66.09</v>
       </c>
       <c r="G4">
-        <v>61.075000000000003</v>
+        <v>62.914999999999999</v>
       </c>
       <c r="H4">
-        <v>60.51</v>
+        <v>62.045000000000002</v>
       </c>
       <c r="I4">
-        <v>59.494999999999997</v>
+        <v>60.84</v>
       </c>
       <c r="J4">
-        <v>58.984999999999999</v>
+        <v>60.225000000000001</v>
       </c>
       <c r="K4">
-        <v>58.445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.634999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>50.89</v>
+        <v>52.68</v>
       </c>
       <c r="C5">
-        <v>58.38</v>
+        <v>60.52</v>
       </c>
       <c r="D5">
-        <v>60.155000000000001</v>
+        <v>62.344999999999999</v>
       </c>
       <c r="E5">
-        <v>63.744999999999997</v>
+        <v>66.754999999999995</v>
       </c>
       <c r="F5">
-        <v>62.465000000000003</v>
+        <v>66.709999999999994</v>
       </c>
       <c r="G5">
-        <v>61.86</v>
+        <v>63.77</v>
       </c>
       <c r="H5">
-        <v>61.74</v>
+        <v>63.284999999999997</v>
       </c>
       <c r="I5">
-        <v>61.39</v>
+        <v>62.78</v>
       </c>
       <c r="J5">
-        <v>60.85</v>
+        <v>62.13</v>
       </c>
       <c r="K5">
-        <v>60.325000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>69.569999999999993</v>
+        <v>69.765000000000001</v>
       </c>
       <c r="C6">
-        <v>68.849999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D6">
-        <v>65.510000000000005</v>
+        <v>69.364999999999995</v>
       </c>
       <c r="E6">
-        <v>65.849999999999994</v>
+        <v>68.41</v>
       </c>
       <c r="F6">
-        <v>64.819999999999993</v>
+        <v>67.075000000000003</v>
       </c>
       <c r="G6">
-        <v>59.994999999999997</v>
+        <v>63.125</v>
       </c>
       <c r="H6">
-        <v>59.435000000000002</v>
+        <v>62.185000000000002</v>
       </c>
       <c r="I6">
-        <v>56.854999999999997</v>
+        <v>59.37</v>
       </c>
       <c r="J6">
-        <v>57.064999999999998</v>
+        <v>58.75</v>
       </c>
       <c r="K6">
-        <v>62.28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>65.040000000000006</v>
+        <v>67.56</v>
       </c>
       <c r="C7">
-        <v>71.784999999999997</v>
+        <v>74.795000000000002</v>
       </c>
       <c r="D7">
-        <v>71.36</v>
+        <v>74.484999999999999</v>
       </c>
       <c r="E7">
-        <v>70.849999999999994</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="F7">
-        <v>72.16</v>
+        <v>74.424999999999997</v>
       </c>
       <c r="G7">
-        <v>70.63</v>
+        <v>72.53</v>
       </c>
       <c r="H7">
-        <v>58.46</v>
+        <v>59.83</v>
       </c>
       <c r="I7">
-        <v>66.87</v>
+        <v>68.3</v>
       </c>
       <c r="J7">
-        <v>55.994999999999997</v>
+        <v>57.88</v>
       </c>
       <c r="K7">
-        <v>65.105000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.405000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>71.665000000000006</v>
+        <v>74.855000000000004</v>
       </c>
       <c r="C8">
-        <v>71.814999999999998</v>
+        <v>75.13</v>
       </c>
       <c r="D8">
-        <v>73.94</v>
+        <v>68.334999999999994</v>
       </c>
       <c r="E8">
-        <v>72.45</v>
+        <v>74.875</v>
       </c>
       <c r="F8">
-        <v>74.015000000000001</v>
+        <v>65.025000000000006</v>
       </c>
       <c r="G8">
-        <v>71.234999999999999</v>
+        <v>73.055000000000007</v>
       </c>
       <c r="H8">
-        <v>57.74</v>
+        <v>59.055</v>
       </c>
       <c r="I8">
-        <v>57.39</v>
+        <v>57.27</v>
       </c>
       <c r="J8">
-        <v>55.375</v>
+        <v>57.06</v>
       </c>
       <c r="K8">
-        <v>66.055000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>77.405000000000001</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="C9">
-        <v>76.569999999999993</v>
+        <v>78.745000000000005</v>
       </c>
       <c r="D9">
-        <v>75.694999999999993</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="E9">
-        <v>73.905000000000001</v>
+        <v>75.72</v>
       </c>
       <c r="F9">
-        <v>72.88</v>
+        <v>74.41</v>
       </c>
       <c r="G9">
-        <v>71.295000000000002</v>
+        <v>61.024999999999999</v>
       </c>
       <c r="H9">
-        <v>68.64</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I9">
-        <v>65.81</v>
+        <v>66.94</v>
       </c>
       <c r="J9">
-        <v>65.260000000000005</v>
+        <v>66.405000000000001</v>
       </c>
       <c r="K9">
-        <v>65.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>68.484999999999999</v>
+        <v>76.515000000000001</v>
       </c>
       <c r="C10">
-        <v>74.665000000000006</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="D10">
-        <v>74.055000000000007</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="E10">
-        <v>72.97</v>
+        <v>74.36</v>
       </c>
       <c r="F10">
-        <v>72.8</v>
+        <v>74.14</v>
       </c>
       <c r="G10">
         <v>73.055000000000007</v>
       </c>
       <c r="H10">
-        <v>68.48</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="I10">
-        <v>65.06</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="J10">
-        <v>64.38</v>
+        <v>65.405000000000001</v>
       </c>
       <c r="K10">
-        <v>63.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>73.245000000000005</v>
+        <v>74.284999999999997</v>
       </c>
       <c r="C11">
-        <v>72.594999999999999</v>
+        <v>72.474999999999994</v>
       </c>
       <c r="D11">
-        <v>68.33</v>
+        <v>72.855000000000004</v>
       </c>
       <c r="E11">
-        <v>69.599999999999994</v>
+        <v>70.605000000000004</v>
       </c>
       <c r="F11">
-        <v>70.19</v>
+        <v>71.174999999999997</v>
       </c>
       <c r="G11">
-        <v>69.010000000000005</v>
+        <v>69.95</v>
       </c>
       <c r="H11">
-        <v>65.12</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="I11">
-        <v>63.3</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="J11">
-        <v>62.164999999999999</v>
+        <v>63.085000000000001</v>
       </c>
       <c r="K11">
-        <v>60.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60.994999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>66.16</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="C12">
-        <v>64.650000000000006</v>
+        <v>65.44</v>
       </c>
       <c r="D12">
-        <v>63.3</v>
+        <v>64.08</v>
       </c>
       <c r="E12">
-        <v>60.604999999999997</v>
+        <v>61.38</v>
       </c>
       <c r="F12">
-        <v>60.965000000000003</v>
+        <v>61.734999999999999</v>
       </c>
       <c r="G12">
-        <v>61.215000000000003</v>
+        <v>61.994999999999997</v>
       </c>
       <c r="H12">
-        <v>58.094999999999999</v>
+        <v>58.89</v>
       </c>
       <c r="I12">
-        <v>55.44</v>
+        <v>56.23</v>
       </c>
       <c r="J12">
-        <v>54.06</v>
+        <v>54.87</v>
       </c>
       <c r="K12">
-        <v>53.494999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.215000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>60.255000000000003</v>
+        <v>60.97</v>
       </c>
       <c r="C13">
-        <v>58.73</v>
+        <v>59.43</v>
       </c>
       <c r="D13">
-        <v>57.604999999999997</v>
+        <v>58.265000000000001</v>
       </c>
       <c r="E13">
-        <v>55.41</v>
+        <v>56.064999999999998</v>
       </c>
       <c r="F13">
-        <v>55.7</v>
+        <v>56.42</v>
       </c>
       <c r="G13">
-        <v>54.62</v>
+        <v>55.31</v>
       </c>
       <c r="H13">
-        <v>53.174999999999997</v>
+        <v>53.93</v>
       </c>
       <c r="I13">
-        <v>50.15</v>
+        <v>50.895000000000003</v>
       </c>
       <c r="J13">
-        <v>50.16</v>
+        <v>50.784999999999997</v>
       </c>
       <c r="K13">
-        <v>49.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49.994999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>55.9</v>
+        <v>56.44</v>
       </c>
       <c r="C14">
-        <v>55.295000000000002</v>
+        <v>55.47</v>
       </c>
       <c r="D14">
-        <v>54.34</v>
+        <v>55.075000000000003</v>
       </c>
       <c r="E14">
-        <v>52.484999999999999</v>
+        <v>54.384999999999998</v>
       </c>
       <c r="F14">
-        <v>52.55</v>
+        <v>53.295000000000002</v>
       </c>
       <c r="G14">
-        <v>50.79</v>
+        <v>51.56</v>
       </c>
       <c r="H14">
-        <v>51.024999999999999</v>
+        <v>51.564999999999998</v>
       </c>
       <c r="I14">
-        <v>49.905000000000001</v>
+        <v>50.335000000000001</v>
       </c>
       <c r="J14">
-        <v>49.41</v>
+        <v>49.784999999999997</v>
       </c>
       <c r="K14">
-        <v>49.26</v>
+        <v>49.59</v>
       </c>
     </row>
   </sheetData>
@@ -4937,17 +5443,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4982,901 +5488,396 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>70.72</v>
+        <v>66.41</v>
       </c>
       <c r="C2">
-        <v>71.72</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="D2">
-        <v>70.91</v>
+        <v>67.16</v>
       </c>
       <c r="E2">
-        <v>54.39</v>
+        <v>51.994999999999997</v>
       </c>
       <c r="F2">
-        <v>58.42</v>
+        <v>55.88</v>
       </c>
       <c r="G2">
-        <v>64.33</v>
+        <v>61.805</v>
       </c>
       <c r="H2">
-        <v>55.44</v>
+        <v>53.52</v>
       </c>
       <c r="I2">
-        <v>56.145000000000003</v>
+        <v>54.335000000000001</v>
       </c>
       <c r="J2">
-        <v>55.03</v>
+        <v>57.704999999999998</v>
       </c>
       <c r="K2">
-        <v>54.305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52.645000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>33.799999999999997</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="C3">
-        <v>67.180000000000007</v>
+        <v>67.55</v>
       </c>
       <c r="D3">
-        <v>66.165000000000006</v>
+        <v>69.23</v>
       </c>
       <c r="E3">
-        <v>57.78</v>
+        <v>67.385000000000005</v>
       </c>
       <c r="F3">
-        <v>61.43</v>
+        <v>58.645000000000003</v>
       </c>
       <c r="G3">
-        <v>63.06</v>
+        <v>61.445</v>
       </c>
       <c r="H3">
-        <v>57.72</v>
+        <v>55.685000000000002</v>
       </c>
       <c r="I3">
-        <v>57.145000000000003</v>
+        <v>55.25</v>
       </c>
       <c r="J3">
-        <v>56.575000000000003</v>
+        <v>54.76</v>
       </c>
       <c r="K3">
-        <v>56.015000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.295000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>66.55</v>
+        <v>66.27</v>
       </c>
       <c r="C4">
-        <v>69.760000000000005</v>
+        <v>65.97</v>
       </c>
       <c r="D4">
-        <v>70.655000000000001</v>
+        <v>67.454999999999998</v>
       </c>
       <c r="E4">
-        <v>60.86</v>
+        <v>60.83</v>
       </c>
       <c r="F4">
-        <v>66.09</v>
+        <v>63.005000000000003</v>
       </c>
       <c r="G4">
-        <v>62.914999999999999</v>
+        <v>60.354999999999997</v>
       </c>
       <c r="H4">
-        <v>62.045000000000002</v>
+        <v>59.805</v>
       </c>
       <c r="I4">
-        <v>60.84</v>
+        <v>58.814999999999998</v>
       </c>
       <c r="J4">
-        <v>60.225000000000001</v>
+        <v>58.295000000000002</v>
       </c>
       <c r="K4">
-        <v>59.634999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
-        <v>52.68</v>
+        <v>49.56</v>
       </c>
       <c r="C5">
-        <v>60.52</v>
+        <v>56.92</v>
       </c>
       <c r="D5">
-        <v>62.344999999999999</v>
+        <v>58.954999999999998</v>
       </c>
       <c r="E5">
-        <v>66.754999999999995</v>
+        <v>64.314999999999998</v>
       </c>
       <c r="F5">
-        <v>66.709999999999994</v>
+        <v>62.814999999999998</v>
       </c>
       <c r="G5">
-        <v>63.77</v>
+        <v>60.51</v>
       </c>
       <c r="H5">
-        <v>63.284999999999997</v>
+        <v>61.005000000000003</v>
       </c>
       <c r="I5">
-        <v>62.78</v>
+        <v>60.674999999999997</v>
       </c>
       <c r="J5">
-        <v>62.13</v>
+        <v>60.145000000000003</v>
       </c>
       <c r="K5">
-        <v>61.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.634999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>69.765000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="C6">
-        <v>69.099999999999994</v>
+        <v>69.069999999999993</v>
       </c>
       <c r="D6">
-        <v>69.364999999999995</v>
+        <v>65.89</v>
       </c>
       <c r="E6">
-        <v>68.41</v>
+        <v>65.314999999999998</v>
       </c>
       <c r="F6">
-        <v>67.075000000000003</v>
+        <v>63.99</v>
       </c>
       <c r="G6">
-        <v>63.125</v>
+        <v>60.875</v>
       </c>
       <c r="H6">
-        <v>62.185000000000002</v>
+        <v>60.29</v>
       </c>
       <c r="I6">
-        <v>59.37</v>
+        <v>57.765000000000001</v>
       </c>
       <c r="J6">
-        <v>58.75</v>
+        <v>56.81</v>
       </c>
       <c r="K6">
-        <v>63.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>67.56</v>
+        <v>63.2</v>
       </c>
       <c r="C7">
-        <v>74.795000000000002</v>
+        <v>70.7</v>
       </c>
       <c r="D7">
-        <v>74.484999999999999</v>
+        <v>70.465000000000003</v>
       </c>
       <c r="E7">
-        <v>73.459999999999994</v>
+        <v>69.965000000000003</v>
       </c>
       <c r="F7">
-        <v>74.424999999999997</v>
+        <v>71.385000000000005</v>
       </c>
       <c r="G7">
-        <v>72.53</v>
+        <v>69.83</v>
       </c>
       <c r="H7">
-        <v>59.83</v>
+        <v>58.884999999999998</v>
       </c>
       <c r="I7">
-        <v>68.3</v>
+        <v>66.105000000000004</v>
       </c>
       <c r="J7">
-        <v>57.88</v>
+        <v>56.19</v>
       </c>
       <c r="K7">
-        <v>66.405000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.394999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>74.855000000000004</v>
+        <v>71.58</v>
       </c>
       <c r="C8">
-        <v>75.13</v>
+        <v>71.44</v>
       </c>
       <c r="D8">
-        <v>68.334999999999994</v>
+        <v>65.91</v>
       </c>
       <c r="E8">
-        <v>74.875</v>
+        <v>71.805000000000007</v>
       </c>
       <c r="F8">
-        <v>65.025000000000006</v>
+        <v>64.86</v>
       </c>
       <c r="G8">
-        <v>73.055000000000007</v>
+        <v>70.525000000000006</v>
       </c>
       <c r="H8">
-        <v>59.055</v>
+        <v>57.875</v>
       </c>
       <c r="I8">
-        <v>57.27</v>
+        <v>57.64</v>
       </c>
       <c r="J8">
-        <v>57.06</v>
+        <v>55.27</v>
       </c>
       <c r="K8">
-        <v>67.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>79.569999999999993</v>
+        <v>76.185000000000002</v>
       </c>
       <c r="C9">
-        <v>78.745000000000005</v>
+        <v>75.594999999999999</v>
       </c>
       <c r="D9">
-        <v>77.709999999999994</v>
+        <v>74.84</v>
       </c>
       <c r="E9">
-        <v>75.72</v>
+        <v>73.174999999999997</v>
       </c>
       <c r="F9">
-        <v>74.41</v>
+        <v>72.034999999999997</v>
       </c>
       <c r="G9">
-        <v>61.024999999999999</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="H9">
-        <v>69.900000000000006</v>
+        <v>67.844999999999999</v>
       </c>
       <c r="I9">
-        <v>66.94</v>
+        <v>65.03</v>
       </c>
       <c r="J9">
-        <v>66.405000000000001</v>
+        <v>64.555000000000007</v>
       </c>
       <c r="K9">
-        <v>66.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>76.515000000000001</v>
+        <v>76.59</v>
       </c>
       <c r="C10">
-        <v>76.239999999999995</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D10">
-        <v>70.650000000000006</v>
+        <v>73.41</v>
       </c>
       <c r="E10">
-        <v>74.36</v>
+        <v>72.114999999999995</v>
       </c>
       <c r="F10">
-        <v>74.14</v>
+        <v>60.844999999999999</v>
       </c>
       <c r="G10">
-        <v>73.055000000000007</v>
+        <v>72.995000000000005</v>
       </c>
       <c r="H10">
-        <v>69.569999999999993</v>
+        <v>67.685000000000002</v>
       </c>
       <c r="I10">
-        <v>66.099999999999994</v>
+        <v>64.31</v>
       </c>
       <c r="J10">
-        <v>65.405000000000001</v>
+        <v>63.674999999999997</v>
       </c>
       <c r="K10">
-        <v>64.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>74.284999999999997</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="C11">
-        <v>72.474999999999994</v>
+        <v>72.394999999999996</v>
       </c>
       <c r="D11">
-        <v>72.855000000000004</v>
+        <v>72.655000000000001</v>
       </c>
       <c r="E11">
-        <v>70.605000000000004</v>
+        <v>68.795000000000002</v>
       </c>
       <c r="F11">
-        <v>71.174999999999997</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="G11">
-        <v>69.95</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="H11">
-        <v>66.010000000000005</v>
+        <v>64.334999999999994</v>
       </c>
       <c r="I11">
-        <v>64.150000000000006</v>
+        <v>62.56</v>
       </c>
       <c r="J11">
-        <v>63.085000000000001</v>
+        <v>61.46</v>
       </c>
       <c r="K11">
-        <v>60.994999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>66.959999999999994</v>
+        <v>65.224999999999994</v>
       </c>
       <c r="C12">
-        <v>65.44</v>
+        <v>63.71</v>
       </c>
       <c r="D12">
-        <v>64.08</v>
+        <v>62.49</v>
       </c>
       <c r="E12">
-        <v>61.38</v>
+        <v>59.774999999999999</v>
       </c>
       <c r="F12">
-        <v>61.734999999999999</v>
+        <v>60.13</v>
       </c>
       <c r="G12">
-        <v>61.994999999999997</v>
+        <v>60.454999999999998</v>
       </c>
       <c r="H12">
-        <v>58.89</v>
+        <v>57.43</v>
       </c>
       <c r="I12">
-        <v>56.23</v>
+        <v>54.83</v>
       </c>
       <c r="J12">
-        <v>54.87</v>
+        <v>53.475000000000001</v>
       </c>
       <c r="K12">
-        <v>54.215000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52.924999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>60.97</v>
-      </c>
-      <c r="C13">
-        <v>59.43</v>
-      </c>
-      <c r="D13">
-        <v>58.265000000000001</v>
-      </c>
-      <c r="E13">
-        <v>56.064999999999998</v>
-      </c>
-      <c r="F13">
-        <v>56.42</v>
-      </c>
-      <c r="G13">
-        <v>55.31</v>
-      </c>
-      <c r="H13">
-        <v>53.93</v>
-      </c>
-      <c r="I13">
-        <v>50.895000000000003</v>
-      </c>
-      <c r="J13">
-        <v>50.784999999999997</v>
-      </c>
-      <c r="K13">
-        <v>49.994999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>56.44</v>
-      </c>
-      <c r="C14">
-        <v>55.47</v>
-      </c>
-      <c r="D14">
-        <v>55.075000000000003</v>
-      </c>
-      <c r="E14">
-        <v>54.384999999999998</v>
-      </c>
-      <c r="F14">
-        <v>53.295000000000002</v>
-      </c>
-      <c r="G14">
-        <v>51.56</v>
-      </c>
-      <c r="H14">
-        <v>51.564999999999998</v>
-      </c>
-      <c r="I14">
-        <v>50.335000000000001</v>
-      </c>
-      <c r="J14">
-        <v>49.784999999999997</v>
-      </c>
-      <c r="K14">
-        <v>49.59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>66.41</v>
-      </c>
-      <c r="C2">
-        <v>72.349999999999994</v>
-      </c>
-      <c r="D2">
-        <v>67.16</v>
-      </c>
-      <c r="E2">
-        <v>51.994999999999997</v>
-      </c>
-      <c r="F2">
-        <v>55.88</v>
-      </c>
-      <c r="G2">
-        <v>61.805</v>
-      </c>
-      <c r="H2">
-        <v>53.52</v>
-      </c>
-      <c r="I2">
-        <v>54.335000000000001</v>
-      </c>
-      <c r="J2">
-        <v>57.704999999999998</v>
-      </c>
-      <c r="K2">
-        <v>52.645000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="C3">
-        <v>67.55</v>
-      </c>
-      <c r="D3">
-        <v>69.23</v>
-      </c>
-      <c r="E3">
-        <v>67.385000000000005</v>
-      </c>
-      <c r="F3">
-        <v>58.645000000000003</v>
-      </c>
-      <c r="G3">
-        <v>61.445</v>
-      </c>
-      <c r="H3">
-        <v>55.685000000000002</v>
-      </c>
-      <c r="I3">
-        <v>55.25</v>
-      </c>
-      <c r="J3">
-        <v>54.76</v>
-      </c>
-      <c r="K3">
-        <v>54.295000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>66.27</v>
-      </c>
-      <c r="C4">
-        <v>65.97</v>
-      </c>
-      <c r="D4">
-        <v>67.454999999999998</v>
-      </c>
-      <c r="E4">
-        <v>60.83</v>
-      </c>
-      <c r="F4">
-        <v>63.005000000000003</v>
-      </c>
-      <c r="G4">
-        <v>60.354999999999997</v>
-      </c>
-      <c r="H4">
-        <v>59.805</v>
-      </c>
-      <c r="I4">
-        <v>58.814999999999998</v>
-      </c>
-      <c r="J4">
-        <v>58.295000000000002</v>
-      </c>
-      <c r="K4">
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>49.56</v>
-      </c>
-      <c r="C5">
-        <v>56.92</v>
-      </c>
-      <c r="D5">
-        <v>58.954999999999998</v>
-      </c>
-      <c r="E5">
-        <v>64.314999999999998</v>
-      </c>
-      <c r="F5">
-        <v>62.814999999999998</v>
-      </c>
-      <c r="G5">
-        <v>60.51</v>
-      </c>
-      <c r="H5">
-        <v>61.005000000000003</v>
-      </c>
-      <c r="I5">
-        <v>60.674999999999997</v>
-      </c>
-      <c r="J5">
-        <v>60.145000000000003</v>
-      </c>
-      <c r="K5">
-        <v>59.634999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>69.7</v>
-      </c>
-      <c r="C6">
-        <v>69.069999999999993</v>
-      </c>
-      <c r="D6">
-        <v>65.89</v>
-      </c>
-      <c r="E6">
-        <v>65.314999999999998</v>
-      </c>
-      <c r="F6">
-        <v>63.99</v>
-      </c>
-      <c r="G6">
-        <v>60.875</v>
-      </c>
-      <c r="H6">
-        <v>60.29</v>
-      </c>
-      <c r="I6">
-        <v>57.765000000000001</v>
-      </c>
-      <c r="J6">
-        <v>56.81</v>
-      </c>
-      <c r="K6">
-        <v>61.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>63.2</v>
-      </c>
-      <c r="C7">
-        <v>70.7</v>
-      </c>
-      <c r="D7">
-        <v>70.465000000000003</v>
-      </c>
-      <c r="E7">
-        <v>69.965000000000003</v>
-      </c>
-      <c r="F7">
-        <v>71.385000000000005</v>
-      </c>
-      <c r="G7">
-        <v>69.83</v>
-      </c>
-      <c r="H7">
-        <v>58.884999999999998</v>
-      </c>
-      <c r="I7">
-        <v>66.105000000000004</v>
-      </c>
-      <c r="J7">
-        <v>56.19</v>
-      </c>
-      <c r="K7">
-        <v>64.394999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>71.58</v>
-      </c>
-      <c r="C8">
-        <v>71.44</v>
-      </c>
-      <c r="D8">
-        <v>65.91</v>
-      </c>
-      <c r="E8">
-        <v>71.805000000000007</v>
-      </c>
-      <c r="F8">
-        <v>64.86</v>
-      </c>
-      <c r="G8">
-        <v>70.525000000000006</v>
-      </c>
-      <c r="H8">
-        <v>57.875</v>
-      </c>
-      <c r="I8">
-        <v>57.64</v>
-      </c>
-      <c r="J8">
-        <v>55.27</v>
-      </c>
-      <c r="K8">
-        <v>65.38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>76.185000000000002</v>
-      </c>
-      <c r="C9">
-        <v>75.594999999999999</v>
-      </c>
-      <c r="D9">
-        <v>74.84</v>
-      </c>
-      <c r="E9">
-        <v>73.174999999999997</v>
-      </c>
-      <c r="F9">
-        <v>72.034999999999997</v>
-      </c>
-      <c r="G9">
-        <v>70.510000000000005</v>
-      </c>
-      <c r="H9">
-        <v>67.844999999999999</v>
-      </c>
-      <c r="I9">
-        <v>65.03</v>
-      </c>
-      <c r="J9">
-        <v>64.555000000000007</v>
-      </c>
-      <c r="K9">
-        <v>64.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>76.59</v>
-      </c>
-      <c r="C10">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="D10">
-        <v>73.41</v>
-      </c>
-      <c r="E10">
-        <v>72.114999999999995</v>
-      </c>
-      <c r="F10">
-        <v>60.844999999999999</v>
-      </c>
-      <c r="G10">
-        <v>72.995000000000005</v>
-      </c>
-      <c r="H10">
-        <v>67.685000000000002</v>
-      </c>
-      <c r="I10">
-        <v>64.31</v>
-      </c>
-      <c r="J10">
-        <v>63.674999999999997</v>
-      </c>
-      <c r="K10">
-        <v>62.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="C11">
-        <v>72.394999999999996</v>
-      </c>
-      <c r="D11">
-        <v>72.655000000000001</v>
-      </c>
-      <c r="E11">
-        <v>68.795000000000002</v>
-      </c>
-      <c r="F11">
-        <v>69.349999999999994</v>
-      </c>
-      <c r="G11">
-        <v>68.180000000000007</v>
-      </c>
-      <c r="H11">
-        <v>64.334999999999994</v>
-      </c>
-      <c r="I11">
-        <v>62.56</v>
-      </c>
-      <c r="J11">
-        <v>61.46</v>
-      </c>
-      <c r="K11">
-        <v>59.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>65.224999999999994</v>
-      </c>
-      <c r="C12">
-        <v>63.71</v>
-      </c>
-      <c r="D12">
-        <v>62.49</v>
-      </c>
-      <c r="E12">
-        <v>59.774999999999999</v>
-      </c>
-      <c r="F12">
-        <v>60.13</v>
-      </c>
-      <c r="G12">
-        <v>60.454999999999998</v>
-      </c>
-      <c r="H12">
-        <v>57.43</v>
-      </c>
-      <c r="I12">
-        <v>54.83</v>
-      </c>
-      <c r="J12">
-        <v>53.475000000000001</v>
-      </c>
-      <c r="K12">
-        <v>52.924999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
         <v>59.47</v>
       </c>
       <c r="C13">
@@ -5907,7 +5908,7 @@
         <v>48.945</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
